--- a/database/industries/ghaza/ghegorji/product/monthly.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB375F8-CFD4-4AC6-8CB3-3F9924F28D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4578BB0-7808-4C3B-9C23-C05BBBD271E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر محصولات</t>
@@ -1465,104 +1465,104 @@
       <c r="U11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>57</v>
+      <c r="V11" s="11">
+        <v>16</v>
+      </c>
+      <c r="W11" s="11">
+        <v>32</v>
       </c>
       <c r="X11" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>57</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>87</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>27</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>38</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>46</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>96</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>65</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>104</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>31</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>94</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>79</v>
+      </c>
+      <c r="AX11" s="11">
         <v>16</v>
       </c>
-      <c r="Y11" s="11">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>38</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>57</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>106</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>49</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>30</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>27</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>38</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>46</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>96</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>65</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>104</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>31</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>94</v>
-      </c>
       <c r="AY11" s="11">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AZ11" s="11">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="BA11" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="BB11" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1574,62 +1574,62 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>640</v>
+        <v>761</v>
       </c>
       <c r="F12" s="13">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="G12" s="13">
-        <v>761</v>
+        <v>1293</v>
       </c>
       <c r="H12" s="13">
-        <v>808</v>
+        <v>980</v>
       </c>
       <c r="I12" s="13">
-        <v>1293</v>
+        <v>650</v>
       </c>
       <c r="J12" s="13">
-        <v>980</v>
+        <v>337</v>
       </c>
       <c r="K12" s="13">
-        <v>650</v>
+        <v>1344</v>
       </c>
       <c r="L12" s="13">
-        <v>337</v>
+        <v>1118</v>
       </c>
       <c r="M12" s="13">
-        <v>1344</v>
+        <v>912</v>
       </c>
       <c r="N12" s="13">
-        <v>1118</v>
+        <v>1407</v>
       </c>
       <c r="O12" s="13">
-        <v>912</v>
+        <v>1598</v>
       </c>
       <c r="P12" s="13">
-        <v>1407</v>
+        <v>1640</v>
       </c>
       <c r="Q12" s="13">
+        <v>1432</v>
+      </c>
+      <c r="R12" s="13">
         <v>1598</v>
       </c>
-      <c r="R12" s="13">
-        <v>1640</v>
-      </c>
       <c r="S12" s="13">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="T12" s="13">
-        <v>1598</v>
+        <v>1506</v>
       </c>
       <c r="U12" s="13">
-        <v>1339</v>
-      </c>
-      <c r="V12" s="13">
-        <v>1506</v>
-      </c>
-      <c r="W12" s="13">
         <v>1575</v>
       </c>
+      <c r="V12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1666,41 +1666,41 @@
       <c r="AI12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK12" s="13" t="s">
-        <v>57</v>
+      <c r="AJ12" s="13">
+        <v>566</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>452</v>
       </c>
       <c r="AL12" s="13">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="AM12" s="13">
-        <v>452</v>
+        <v>811</v>
       </c>
       <c r="AN12" s="13">
-        <v>907</v>
+        <v>694</v>
       </c>
       <c r="AO12" s="13">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="AP12" s="13">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="AQ12" s="13">
-        <v>791</v>
+        <v>531</v>
       </c>
       <c r="AR12" s="13">
-        <v>760</v>
+        <v>622</v>
       </c>
       <c r="AS12" s="13">
-        <v>531</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>622</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>57</v>
@@ -1733,25 +1733,25 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F13" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G13" s="11">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="H13" s="11">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="I13" s="11">
-        <v>79</v>
-      </c>
-      <c r="J13" s="11">
-        <v>374</v>
-      </c>
-      <c r="K13" s="11">
         <v>392</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>57</v>
@@ -1906,47 +1906,47 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>130</v>
       </c>
       <c r="L14" s="13">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M14" s="13">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="N14" s="13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O14" s="13">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="P14" s="13">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="13">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="R14" s="13">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="S14" s="13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T14" s="13">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="U14" s="13">
-        <v>60</v>
-      </c>
-      <c r="V14" s="13">
-        <v>80</v>
-      </c>
-      <c r="W14" s="13">
         <v>78</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>57</v>
@@ -2051,154 +2051,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F15" s="11">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G15" s="11">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="H15" s="11">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I15" s="11">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="J15" s="11">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="K15" s="11">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="L15" s="11">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M15" s="11">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="N15" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="11">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="P15" s="11">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>14</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>84</v>
+      </c>
+      <c r="T15" s="11">
+        <v>95</v>
+      </c>
+      <c r="U15" s="11">
+        <v>76</v>
+      </c>
+      <c r="V15" s="11">
+        <v>43</v>
+      </c>
+      <c r="W15" s="11">
+        <v>163</v>
+      </c>
+      <c r="X15" s="11">
         <v>85</v>
       </c>
-      <c r="Q15" s="11">
-        <v>97</v>
-      </c>
-      <c r="R15" s="11">
-        <v>228</v>
-      </c>
-      <c r="S15" s="11">
-        <v>14</v>
-      </c>
-      <c r="T15" s="11">
-        <v>1</v>
-      </c>
-      <c r="U15" s="11">
-        <v>84</v>
-      </c>
-      <c r="V15" s="11">
-        <v>95</v>
-      </c>
-      <c r="W15" s="11">
+      <c r="Y15" s="11">
+        <v>112</v>
+      </c>
+      <c r="Z15" s="11">
         <v>76</v>
       </c>
-      <c r="X15" s="11">
-        <v>43</v>
-      </c>
-      <c r="Y15" s="11">
+      <c r="AA15" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>135</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>213</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>83</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>116</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>125</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>128</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>94</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>111</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>123</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>83</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>107</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>52</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>39</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>53</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>56</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>98</v>
+      </c>
+      <c r="AY15" s="11">
         <v>163</v>
       </c>
-      <c r="Z15" s="11">
-        <v>85</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>112</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>76</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>75</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>112</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>135</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>213</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>83</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>116</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>40</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>78</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>111</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>125</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>128</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>94</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>111</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>123</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>83</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>107</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>45</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>39</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>53</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>56</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="BA15" s="11">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="BB15" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2260,104 +2260,104 @@
       <c r="U16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>57</v>
+      <c r="V16" s="13">
+        <v>691</v>
+      </c>
+      <c r="W16" s="13">
+        <v>1918</v>
       </c>
       <c r="X16" s="13">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="Y16" s="13">
-        <v>1918</v>
+        <v>1152</v>
       </c>
       <c r="Z16" s="13">
-        <v>750</v>
+        <v>1059</v>
       </c>
       <c r="AA16" s="13">
-        <v>1152</v>
+        <v>1188</v>
       </c>
       <c r="AB16" s="13">
-        <v>1059</v>
+        <v>797</v>
       </c>
       <c r="AC16" s="13">
+        <v>1070</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>1628</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>980</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>926</v>
+      </c>
+      <c r="AG16" s="13">
         <v>1188</v>
       </c>
-      <c r="AD16" s="13">
-        <v>797</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>1070</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>1628</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>980</v>
-      </c>
       <c r="AH16" s="13">
-        <v>926</v>
+        <v>710</v>
       </c>
       <c r="AI16" s="13">
-        <v>1188</v>
+        <v>1274</v>
       </c>
       <c r="AJ16" s="13">
-        <v>710</v>
+        <v>384</v>
       </c>
       <c r="AK16" s="13">
-        <v>1274</v>
+        <v>219</v>
       </c>
       <c r="AL16" s="13">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM16" s="13">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN16" s="13">
+        <v>91</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>147</v>
+      </c>
+      <c r="AQ16" s="13">
         <v>84</v>
       </c>
-      <c r="AO16" s="13">
-        <v>65</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>91</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>146</v>
-      </c>
       <c r="AR16" s="13">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AS16" s="13">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AT16" s="13">
-        <v>60</v>
+        <v>353</v>
       </c>
       <c r="AU16" s="13">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="AV16" s="13">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="AW16" s="13">
-        <v>98</v>
+        <v>605</v>
       </c>
       <c r="AX16" s="13">
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="AY16" s="13">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="AZ16" s="13">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="BA16" s="13">
-        <v>563</v>
+        <v>680</v>
       </c>
       <c r="BB16" s="13">
-        <v>450</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2512,14 +2512,14 @@
       <c r="AG18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="11" t="s">
-        <v>57</v>
+      <c r="AH18" s="11">
+        <v>0</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
+      <c r="AJ18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK18" s="11" t="s">
         <v>57</v>
@@ -2644,11 +2644,11 @@
       <c r="X19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>57</v>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -2671,11 +2671,11 @@
       <c r="AG19" s="13">
         <v>0</v>
       </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <v>0</v>
+      <c r="AH19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ19" s="13" t="s">
         <v>57</v>
@@ -2801,11 +2801,11 @@
       <c r="X20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>57</v>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0</v>
       </c>
       <c r="AA20" s="15">
         <v>0</v>
@@ -2899,154 +2899,154 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>835</v>
+        <v>1012</v>
       </c>
       <c r="F21" s="17">
-        <v>986</v>
+        <v>1046</v>
       </c>
       <c r="G21" s="17">
-        <v>1012</v>
+        <v>1566</v>
       </c>
       <c r="H21" s="17">
-        <v>1046</v>
+        <v>1471</v>
       </c>
       <c r="I21" s="17">
-        <v>1566</v>
+        <v>1116</v>
       </c>
       <c r="J21" s="17">
-        <v>1471</v>
+        <v>361</v>
       </c>
       <c r="K21" s="17">
-        <v>1116</v>
+        <v>1615</v>
       </c>
       <c r="L21" s="17">
-        <v>361</v>
+        <v>1268</v>
       </c>
       <c r="M21" s="17">
-        <v>1615</v>
+        <v>1016</v>
       </c>
       <c r="N21" s="17">
-        <v>1268</v>
+        <v>1553</v>
       </c>
       <c r="O21" s="17">
-        <v>1016</v>
+        <v>1820</v>
       </c>
       <c r="P21" s="17">
-        <v>1553</v>
+        <v>2089</v>
       </c>
       <c r="Q21" s="17">
-        <v>1820</v>
+        <v>1516</v>
       </c>
       <c r="R21" s="17">
-        <v>2089</v>
+        <v>1633</v>
       </c>
       <c r="S21" s="17">
-        <v>1516</v>
+        <v>1483</v>
       </c>
       <c r="T21" s="17">
-        <v>1633</v>
+        <v>1681</v>
       </c>
       <c r="U21" s="17">
-        <v>1483</v>
+        <v>1729</v>
       </c>
       <c r="V21" s="17">
-        <v>1681</v>
+        <v>750</v>
       </c>
       <c r="W21" s="17">
-        <v>1729</v>
+        <v>2113</v>
       </c>
       <c r="X21" s="17">
-        <v>750</v>
+        <v>873</v>
       </c>
       <c r="Y21" s="17">
-        <v>2113</v>
+        <v>1289</v>
       </c>
       <c r="Z21" s="17">
-        <v>873</v>
+        <v>1192</v>
       </c>
       <c r="AA21" s="17">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="AB21" s="17">
-        <v>1192</v>
+        <v>1015</v>
       </c>
       <c r="AC21" s="17">
-        <v>1313</v>
+        <v>1254</v>
       </c>
       <c r="AD21" s="17">
-        <v>1015</v>
+        <v>1867</v>
       </c>
       <c r="AE21" s="17">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="AF21" s="17">
-        <v>1867</v>
+        <v>1115</v>
       </c>
       <c r="AG21" s="17">
-        <v>1150</v>
+        <v>1246</v>
       </c>
       <c r="AH21" s="17">
-        <v>1115</v>
+        <v>710</v>
       </c>
       <c r="AI21" s="17">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="AJ21" s="17">
-        <v>710</v>
+        <v>1058</v>
       </c>
       <c r="AK21" s="17">
-        <v>1274</v>
+        <v>817</v>
       </c>
       <c r="AL21" s="17">
-        <v>1058</v>
+        <v>1140</v>
       </c>
       <c r="AM21" s="17">
-        <v>817</v>
+        <v>1031</v>
       </c>
       <c r="AN21" s="17">
-        <v>1140</v>
+        <v>917</v>
       </c>
       <c r="AO21" s="17">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="AP21" s="17">
-        <v>917</v>
+        <v>1126</v>
       </c>
       <c r="AQ21" s="17">
-        <v>1094</v>
+        <v>763</v>
       </c>
       <c r="AR21" s="17">
-        <v>1126</v>
+        <v>893</v>
       </c>
       <c r="AS21" s="17">
+        <v>497</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>423</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>137</v>
+      </c>
+      <c r="AV21" s="17">
+        <v>369</v>
+      </c>
+      <c r="AW21" s="17">
+        <v>740</v>
+      </c>
+      <c r="AX21" s="17">
+        <v>744</v>
+      </c>
+      <c r="AY21" s="17">
         <v>763</v>
       </c>
-      <c r="AT21" s="17">
-        <v>893</v>
-      </c>
-      <c r="AU21" s="17">
-        <v>497</v>
-      </c>
-      <c r="AV21" s="17">
-        <v>423</v>
-      </c>
-      <c r="AW21" s="17">
-        <v>137</v>
-      </c>
-      <c r="AX21" s="17">
-        <v>369</v>
-      </c>
-      <c r="AY21" s="17">
-        <v>740</v>
-      </c>
       <c r="AZ21" s="17">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="BA21" s="17">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="BB21" s="17">
-        <v>668</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3542,104 +3542,104 @@
       <c r="U28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>57</v>
+      <c r="V28" s="11">
+        <v>9</v>
+      </c>
+      <c r="W28" s="11">
+        <v>53</v>
       </c>
       <c r="X28" s="11">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="Y28" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z28" s="11">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AA28" s="11">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AB28" s="11">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="AC28" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AD28" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="AE28" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AF28" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AG28" s="11">
-        <v>98</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>79</v>
-      </c>
-      <c r="AI28" s="11">
         <v>36</v>
       </c>
-      <c r="AJ28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>57</v>
+      <c r="AH28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>33</v>
       </c>
       <c r="AL28" s="11">
+        <v>28</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>28</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>39</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>44</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>93</v>
+      </c>
+      <c r="AQ28" s="11">
         <v>71</v>
       </c>
-      <c r="AM28" s="11">
-        <v>33</v>
-      </c>
-      <c r="AN28" s="11">
-        <v>28</v>
-      </c>
-      <c r="AO28" s="11">
-        <v>28</v>
-      </c>
-      <c r="AP28" s="11">
-        <v>39</v>
-      </c>
-      <c r="AQ28" s="11">
-        <v>44</v>
-      </c>
       <c r="AR28" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AS28" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AT28" s="11">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="AU28" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="AW28" s="11">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AX28" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AY28" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AZ28" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="BA28" s="11">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="BB28" s="11">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3651,133 +3651,133 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="F29" s="13">
+        <v>770</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1315</v>
+      </c>
+      <c r="H29" s="13">
+        <v>846</v>
+      </c>
+      <c r="I29" s="13">
+        <v>972</v>
+      </c>
+      <c r="J29" s="13">
+        <v>293</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1162</v>
+      </c>
+      <c r="L29" s="13">
+        <v>952</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1082</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1457</v>
+      </c>
+      <c r="O29" s="13">
+        <v>1579</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1508</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1279</v>
+      </c>
+      <c r="R29" s="13">
+        <v>1708</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1474</v>
+      </c>
+      <c r="T29" s="13">
+        <v>1451</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1733</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>453</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>652</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>810</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>793</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>829</v>
+      </c>
+      <c r="AO29" s="13">
         <v>762</v>
       </c>
-      <c r="G29" s="13">
-        <v>658</v>
-      </c>
-      <c r="H29" s="13">
-        <v>770</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1315</v>
-      </c>
-      <c r="J29" s="13">
-        <v>846</v>
-      </c>
-      <c r="K29" s="13">
-        <v>972</v>
-      </c>
-      <c r="L29" s="13">
-        <v>293</v>
-      </c>
-      <c r="M29" s="13">
-        <v>1162</v>
-      </c>
-      <c r="N29" s="13">
-        <v>952</v>
-      </c>
-      <c r="O29" s="13">
-        <v>1082</v>
-      </c>
-      <c r="P29" s="13">
-        <v>1457</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>1579</v>
-      </c>
-      <c r="R29" s="13">
-        <v>1508</v>
-      </c>
-      <c r="S29" s="13">
-        <v>1279</v>
-      </c>
-      <c r="T29" s="13">
-        <v>1708</v>
-      </c>
-      <c r="U29" s="13">
-        <v>1474</v>
-      </c>
-      <c r="V29" s="13">
-        <v>1451</v>
-      </c>
-      <c r="W29" s="13">
-        <v>1733</v>
-      </c>
-      <c r="X29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>453</v>
-      </c>
-      <c r="AM29" s="13">
-        <v>652</v>
-      </c>
-      <c r="AN29" s="13">
-        <v>810</v>
-      </c>
-      <c r="AO29" s="13">
-        <v>793</v>
-      </c>
       <c r="AP29" s="13">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="AQ29" s="13">
-        <v>762</v>
+        <v>583</v>
       </c>
       <c r="AR29" s="13">
-        <v>759</v>
+        <v>588</v>
       </c>
       <c r="AS29" s="13">
-        <v>583</v>
-      </c>
-      <c r="AT29" s="13">
-        <v>588</v>
-      </c>
-      <c r="AU29" s="13">
         <v>36</v>
+      </c>
+      <c r="AT29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV29" s="13" t="s">
         <v>57</v>
@@ -3810,25 +3810,25 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F30" s="11">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G30" s="11">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H30" s="11">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="I30" s="11">
-        <v>45</v>
-      </c>
-      <c r="J30" s="11">
-        <v>288</v>
-      </c>
-      <c r="K30" s="11">
         <v>457</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>57</v>
@@ -3983,47 +3983,47 @@
       <c r="I31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>57</v>
+      <c r="J31" s="13">
+        <v>21</v>
+      </c>
+      <c r="K31" s="13">
+        <v>116</v>
       </c>
       <c r="L31" s="13">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M31" s="13">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="N31" s="13">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="O31" s="13">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="P31" s="13">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="13">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="R31" s="13">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="S31" s="13">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="T31" s="13">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="U31" s="13">
-        <v>58</v>
-      </c>
-      <c r="V31" s="13">
-        <v>65</v>
-      </c>
-      <c r="W31" s="13">
         <v>90</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X31" s="13" t="s">
         <v>57</v>
@@ -4128,154 +4128,154 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F32" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="11">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H32" s="11">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I32" s="11">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J32" s="11">
+        <v>28</v>
+      </c>
+      <c r="K32" s="11">
+        <v>74</v>
+      </c>
+      <c r="L32" s="11">
+        <v>87</v>
+      </c>
+      <c r="M32" s="11">
+        <v>96</v>
+      </c>
+      <c r="N32" s="11">
         <v>92</v>
       </c>
-      <c r="K32" s="11">
-        <v>171</v>
-      </c>
-      <c r="L32" s="11">
+      <c r="O32" s="11">
+        <v>85</v>
+      </c>
+      <c r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>98</v>
+      </c>
+      <c r="R32" s="11">
+        <v>63</v>
+      </c>
+      <c r="S32" s="11">
+        <v>81</v>
+      </c>
+      <c r="T32" s="11">
+        <v>85</v>
+      </c>
+      <c r="U32" s="11">
+        <v>107</v>
+      </c>
+      <c r="V32" s="11">
         <v>28</v>
       </c>
-      <c r="M32" s="11">
-        <v>74</v>
-      </c>
-      <c r="N32" s="11">
-        <v>87</v>
-      </c>
-      <c r="O32" s="11">
-        <v>96</v>
-      </c>
-      <c r="P32" s="11">
-        <v>92</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>85</v>
-      </c>
-      <c r="R32" s="11">
+      <c r="W32" s="11">
+        <v>130</v>
+      </c>
+      <c r="X32" s="11">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>107</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>80</v>
+      </c>
+      <c r="AA32" s="11">
         <v>95</v>
       </c>
-      <c r="S32" s="11">
-        <v>98</v>
-      </c>
-      <c r="T32" s="11">
+      <c r="AB32" s="11">
+        <v>105</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>159</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>133</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>79</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>147</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>111</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>117</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>107</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>90</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>100</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>38</v>
+      </c>
+      <c r="AT32" s="11">
         <v>63</v>
       </c>
-      <c r="U32" s="11">
+      <c r="AU32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>71</v>
+      </c>
+      <c r="AW32" s="11">
+        <v>67</v>
+      </c>
+      <c r="AX32" s="11">
         <v>81</v>
       </c>
-      <c r="V32" s="11">
-        <v>85</v>
-      </c>
-      <c r="W32" s="11">
-        <v>107</v>
-      </c>
-      <c r="X32" s="11">
-        <v>28</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>130</v>
-      </c>
-      <c r="Z32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AB32" s="11">
+      <c r="AY32" s="11">
+        <v>122</v>
+      </c>
+      <c r="AZ32" s="11">
+        <v>123</v>
+      </c>
+      <c r="BA32" s="11">
         <v>80</v>
       </c>
-      <c r="AC32" s="11">
-        <v>95</v>
-      </c>
-      <c r="AD32" s="11">
-        <v>105</v>
-      </c>
-      <c r="AE32" s="11">
-        <v>130</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>159</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>133</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>79</v>
-      </c>
-      <c r="AJ32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>147</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN32" s="11">
-        <v>111</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>125</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AQ32" s="11">
-        <v>117</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>90</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>38</v>
-      </c>
-      <c r="AV32" s="11">
+      <c r="BB32" s="11">
         <v>63</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>71</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>67</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>81</v>
-      </c>
-      <c r="BA32" s="11">
-        <v>122</v>
-      </c>
-      <c r="BB32" s="11">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4337,104 +4337,104 @@
       <c r="U33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>57</v>
+      <c r="V33" s="13">
+        <v>495</v>
+      </c>
+      <c r="W33" s="13">
+        <v>1618</v>
       </c>
       <c r="X33" s="13">
-        <v>495</v>
+        <v>999</v>
       </c>
       <c r="Y33" s="13">
-        <v>1618</v>
+        <v>1152</v>
       </c>
       <c r="Z33" s="13">
-        <v>999</v>
+        <v>1160</v>
       </c>
       <c r="AA33" s="13">
-        <v>1152</v>
+        <v>1208</v>
       </c>
       <c r="AB33" s="13">
-        <v>1160</v>
+        <v>904</v>
       </c>
       <c r="AC33" s="13">
-        <v>1208</v>
+        <v>850</v>
       </c>
       <c r="AD33" s="13">
-        <v>904</v>
+        <v>1219</v>
       </c>
       <c r="AE33" s="13">
-        <v>850</v>
+        <v>1233</v>
       </c>
       <c r="AF33" s="13">
-        <v>1219</v>
+        <v>1122</v>
       </c>
       <c r="AG33" s="13">
-        <v>1233</v>
+        <v>1516</v>
       </c>
       <c r="AH33" s="13">
-        <v>1122</v>
+        <v>512</v>
       </c>
       <c r="AI33" s="13">
-        <v>1516</v>
+        <v>1179</v>
       </c>
       <c r="AJ33" s="13">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="AK33" s="13">
-        <v>1179</v>
+        <v>219</v>
       </c>
       <c r="AL33" s="13">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM33" s="13">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN33" s="13">
+        <v>91</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>146</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>147</v>
+      </c>
+      <c r="AQ33" s="13">
         <v>84</v>
       </c>
-      <c r="AO33" s="13">
-        <v>65</v>
-      </c>
-      <c r="AP33" s="13">
-        <v>91</v>
-      </c>
-      <c r="AQ33" s="13">
-        <v>146</v>
-      </c>
       <c r="AR33" s="13">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AS33" s="13">
-        <v>84</v>
+        <v>463</v>
       </c>
       <c r="AT33" s="13">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AU33" s="13">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="AV33" s="13">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="AW33" s="13">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="AX33" s="13">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="AY33" s="13">
-        <v>503</v>
+        <v>344</v>
       </c>
       <c r="AZ33" s="13">
-        <v>633</v>
+        <v>465</v>
       </c>
       <c r="BA33" s="13">
-        <v>344</v>
+        <v>671</v>
       </c>
       <c r="BB33" s="13">
-        <v>465</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4589,14 +4589,14 @@
       <c r="AG35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH35" s="11" t="s">
-        <v>57</v>
+      <c r="AH35" s="11">
+        <v>0</v>
       </c>
       <c r="AI35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ35" s="11">
-        <v>0</v>
+      <c r="AJ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK35" s="11" t="s">
         <v>57</v>
@@ -4721,11 +4721,11 @@
       <c r="X36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z36" s="13" t="s">
-        <v>57</v>
+      <c r="Y36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>0</v>
       </c>
       <c r="AA36" s="13">
         <v>0</v>
@@ -4748,11 +4748,11 @@
       <c r="AG36" s="13">
         <v>0</v>
       </c>
-      <c r="AH36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>0</v>
+      <c r="AH36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ36" s="13" t="s">
         <v>57</v>
@@ -4878,11 +4878,11 @@
       <c r="X37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>57</v>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
       </c>
       <c r="AA37" s="15">
         <v>0</v>
@@ -5092,11 +5092,11 @@
       <c r="X39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="15" t="s">
-        <v>57</v>
+      <c r="Y39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>0</v>
       </c>
       <c r="AA39" s="15">
         <v>0</v>
@@ -5190,154 +5190,154 @@
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17">
-        <v>737</v>
+        <v>874</v>
       </c>
       <c r="F40" s="17">
-        <v>982</v>
+        <v>1038</v>
       </c>
       <c r="G40" s="17">
-        <v>874</v>
+        <v>1500</v>
       </c>
       <c r="H40" s="17">
-        <v>1038</v>
+        <v>1226</v>
       </c>
       <c r="I40" s="17">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J40" s="17">
+        <v>342</v>
+      </c>
+      <c r="K40" s="17">
+        <v>1352</v>
+      </c>
+      <c r="L40" s="17">
+        <v>1121</v>
+      </c>
+      <c r="M40" s="17">
         <v>1226</v>
       </c>
-      <c r="K40" s="17">
-        <v>1600</v>
-      </c>
-      <c r="L40" s="17">
-        <v>342</v>
-      </c>
-      <c r="M40" s="17">
-        <v>1352</v>
-      </c>
       <c r="N40" s="17">
-        <v>1121</v>
+        <v>1590</v>
       </c>
       <c r="O40" s="17">
-        <v>1226</v>
+        <v>1755</v>
       </c>
       <c r="P40" s="17">
-        <v>1590</v>
+        <v>1732</v>
       </c>
       <c r="Q40" s="17">
-        <v>1755</v>
+        <v>1510</v>
       </c>
       <c r="R40" s="17">
-        <v>1732</v>
+        <v>1852</v>
       </c>
       <c r="S40" s="17">
-        <v>1510</v>
+        <v>1613</v>
       </c>
       <c r="T40" s="17">
-        <v>1852</v>
+        <v>1601</v>
       </c>
       <c r="U40" s="17">
-        <v>1613</v>
+        <v>1930</v>
       </c>
       <c r="V40" s="17">
-        <v>1601</v>
+        <v>532</v>
       </c>
       <c r="W40" s="17">
-        <v>1930</v>
+        <v>1801</v>
       </c>
       <c r="X40" s="17">
-        <v>532</v>
+        <v>1146</v>
       </c>
       <c r="Y40" s="17">
-        <v>1801</v>
+        <v>1311</v>
       </c>
       <c r="Z40" s="17">
-        <v>1146</v>
+        <v>1294</v>
       </c>
       <c r="AA40" s="17">
-        <v>1311</v>
+        <v>1371</v>
       </c>
       <c r="AB40" s="17">
-        <v>1294</v>
+        <v>1136</v>
       </c>
       <c r="AC40" s="17">
-        <v>1371</v>
+        <v>1072</v>
       </c>
       <c r="AD40" s="17">
-        <v>1136</v>
+        <v>1410</v>
       </c>
       <c r="AE40" s="17">
-        <v>1072</v>
+        <v>1439</v>
       </c>
       <c r="AF40" s="17">
-        <v>1410</v>
+        <v>1334</v>
       </c>
       <c r="AG40" s="17">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="AH40" s="17">
-        <v>1334</v>
+        <v>512</v>
       </c>
       <c r="AI40" s="17">
-        <v>1631</v>
+        <v>1179</v>
       </c>
       <c r="AJ40" s="17">
-        <v>512</v>
+        <v>1055</v>
       </c>
       <c r="AK40" s="17">
-        <v>1179</v>
+        <v>1032</v>
       </c>
       <c r="AL40" s="17">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="AM40" s="17">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="AN40" s="17">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="AO40" s="17">
-        <v>1011</v>
+        <v>1069</v>
       </c>
       <c r="AP40" s="17">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="AQ40" s="17">
-        <v>1069</v>
+        <v>828</v>
       </c>
       <c r="AR40" s="17">
-        <v>1106</v>
+        <v>864</v>
       </c>
       <c r="AS40" s="17">
-        <v>828</v>
+        <v>571</v>
       </c>
       <c r="AT40" s="17">
-        <v>864</v>
+        <v>436</v>
       </c>
       <c r="AU40" s="17">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="AV40" s="17">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AW40" s="17">
-        <v>32</v>
+        <v>648</v>
       </c>
       <c r="AX40" s="17">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="AY40" s="17">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="AZ40" s="17">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="BA40" s="17">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="BB40" s="17">
-        <v>705</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5833,104 +5833,104 @@
       <c r="U47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>57</v>
+      <c r="V47" s="11">
+        <v>2720</v>
+      </c>
+      <c r="W47" s="11">
+        <v>12971</v>
       </c>
       <c r="X47" s="11">
-        <v>2720</v>
+        <v>12129</v>
       </c>
       <c r="Y47" s="11">
-        <v>12971</v>
+        <v>12962</v>
       </c>
       <c r="Z47" s="11">
-        <v>12129</v>
+        <v>11838</v>
       </c>
       <c r="AA47" s="11">
-        <v>12962</v>
+        <v>15040</v>
       </c>
       <c r="AB47" s="11">
-        <v>11838</v>
+        <v>28208</v>
       </c>
       <c r="AC47" s="11">
-        <v>15040</v>
+        <v>24364</v>
       </c>
       <c r="AD47" s="11">
-        <v>28208</v>
+        <v>9319</v>
       </c>
       <c r="AE47" s="11">
-        <v>24364</v>
+        <v>25128</v>
       </c>
       <c r="AF47" s="11">
-        <v>9319</v>
+        <v>20524</v>
       </c>
       <c r="AG47" s="11">
-        <v>25128</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>20524</v>
-      </c>
-      <c r="AI47" s="11">
         <v>8653</v>
       </c>
-      <c r="AJ47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK47" s="11" t="s">
-        <v>57</v>
+      <c r="AH47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>21324</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>9826</v>
       </c>
       <c r="AL47" s="11">
-        <v>21324</v>
+        <v>8550</v>
       </c>
       <c r="AM47" s="11">
-        <v>9826</v>
+        <v>8991</v>
       </c>
       <c r="AN47" s="11">
-        <v>8550</v>
+        <v>12874</v>
       </c>
       <c r="AO47" s="11">
-        <v>8991</v>
+        <v>17112</v>
       </c>
       <c r="AP47" s="11">
-        <v>12874</v>
+        <v>36680</v>
       </c>
       <c r="AQ47" s="11">
-        <v>17112</v>
+        <v>29292</v>
       </c>
       <c r="AR47" s="11">
-        <v>36680</v>
+        <v>49120</v>
       </c>
       <c r="AS47" s="11">
-        <v>29292</v>
+        <v>14380</v>
       </c>
       <c r="AT47" s="11">
-        <v>49120</v>
+        <v>9472</v>
       </c>
       <c r="AU47" s="11">
-        <v>14380</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="11">
-        <v>9472</v>
+        <v>72135</v>
       </c>
       <c r="AW47" s="11">
-        <v>0</v>
+        <v>54672</v>
       </c>
       <c r="AX47" s="11">
-        <v>72135</v>
+        <v>23415</v>
       </c>
       <c r="AY47" s="11">
-        <v>54672</v>
+        <v>51313</v>
       </c>
       <c r="AZ47" s="11">
-        <v>23415</v>
+        <v>95458</v>
       </c>
       <c r="BA47" s="11">
-        <v>51313</v>
+        <v>111553</v>
       </c>
       <c r="BB47" s="11">
-        <v>95458</v>
+        <v>65064</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5942,62 +5942,62 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>45576</v>
+        <v>61112</v>
       </c>
       <c r="F48" s="13">
-        <v>59102</v>
+        <v>75143</v>
       </c>
       <c r="G48" s="13">
-        <v>61112</v>
+        <v>146395</v>
       </c>
       <c r="H48" s="13">
-        <v>75143</v>
+        <v>92732</v>
       </c>
       <c r="I48" s="13">
-        <v>146395</v>
+        <v>84147</v>
       </c>
       <c r="J48" s="13">
-        <v>92732</v>
+        <v>30548</v>
       </c>
       <c r="K48" s="13">
-        <v>84147</v>
+        <v>141117</v>
       </c>
       <c r="L48" s="13">
-        <v>30548</v>
+        <v>119026</v>
       </c>
       <c r="M48" s="13">
-        <v>141117</v>
+        <v>136993</v>
       </c>
       <c r="N48" s="13">
-        <v>119026</v>
+        <v>194840</v>
       </c>
       <c r="O48" s="13">
-        <v>136993</v>
+        <v>231446</v>
       </c>
       <c r="P48" s="13">
-        <v>194840</v>
+        <v>214206</v>
       </c>
       <c r="Q48" s="13">
-        <v>231446</v>
+        <v>188484</v>
       </c>
       <c r="R48" s="13">
-        <v>214206</v>
+        <v>235182</v>
       </c>
       <c r="S48" s="13">
-        <v>188484</v>
+        <v>215829</v>
       </c>
       <c r="T48" s="13">
-        <v>235182</v>
+        <v>193702</v>
       </c>
       <c r="U48" s="13">
-        <v>215829</v>
-      </c>
-      <c r="V48" s="13">
-        <v>193702</v>
-      </c>
-      <c r="W48" s="13">
         <v>210115</v>
       </c>
+      <c r="V48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6034,41 +6034,41 @@
       <c r="AI48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK48" s="13" t="s">
-        <v>57</v>
+      <c r="AJ48" s="13">
+        <v>120878</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>179709</v>
       </c>
       <c r="AL48" s="13">
-        <v>120878</v>
+        <v>225789</v>
       </c>
       <c r="AM48" s="13">
-        <v>179709</v>
+        <v>231341</v>
       </c>
       <c r="AN48" s="13">
-        <v>225789</v>
+        <v>256539</v>
       </c>
       <c r="AO48" s="13">
-        <v>231341</v>
+        <v>260537</v>
       </c>
       <c r="AP48" s="13">
-        <v>256539</v>
+        <v>260136</v>
       </c>
       <c r="AQ48" s="13">
-        <v>260537</v>
+        <v>214732</v>
       </c>
       <c r="AR48" s="13">
-        <v>260136</v>
+        <v>-386734</v>
       </c>
       <c r="AS48" s="13">
-        <v>214732</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>217920</v>
-      </c>
-      <c r="AU48" s="13">
         <v>13296</v>
+      </c>
+      <c r="AT48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV48" s="13" t="s">
         <v>57</v>
@@ -6101,25 +6101,25 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>5147</v>
+        <v>13447</v>
       </c>
       <c r="F49" s="11">
-        <v>13935</v>
+        <v>20775</v>
       </c>
       <c r="G49" s="11">
-        <v>13447</v>
+        <v>6531</v>
       </c>
       <c r="H49" s="11">
-        <v>20775</v>
+        <v>41826</v>
       </c>
       <c r="I49" s="11">
-        <v>6531</v>
-      </c>
-      <c r="J49" s="11">
-        <v>41826</v>
-      </c>
-      <c r="K49" s="11">
         <v>84711</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>57</v>
@@ -6274,47 +6274,47 @@
       <c r="I50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>57</v>
+      <c r="J50" s="13">
+        <v>4684</v>
+      </c>
+      <c r="K50" s="13">
+        <v>19969</v>
       </c>
       <c r="L50" s="13">
-        <v>4684</v>
+        <v>15714</v>
       </c>
       <c r="M50" s="13">
-        <v>19969</v>
+        <v>11082</v>
       </c>
       <c r="N50" s="13">
-        <v>15714</v>
+        <v>10007</v>
       </c>
       <c r="O50" s="13">
-        <v>11082</v>
+        <v>8178</v>
       </c>
       <c r="P50" s="13">
-        <v>10007</v>
+        <v>22614</v>
       </c>
       <c r="Q50" s="13">
-        <v>8178</v>
+        <v>23362</v>
       </c>
       <c r="R50" s="13">
-        <v>22614</v>
+        <v>14055</v>
       </c>
       <c r="S50" s="13">
-        <v>23362</v>
+        <v>10070</v>
       </c>
       <c r="T50" s="13">
-        <v>14055</v>
+        <v>13248</v>
       </c>
       <c r="U50" s="13">
-        <v>10070</v>
-      </c>
-      <c r="V50" s="13">
-        <v>13248</v>
-      </c>
-      <c r="W50" s="13">
         <v>26162</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X50" s="13" t="s">
         <v>57</v>
@@ -6419,154 +6419,154 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>12635</v>
+        <v>11989</v>
       </c>
       <c r="F51" s="11">
-        <v>14396</v>
+        <v>12543</v>
       </c>
       <c r="G51" s="11">
-        <v>11989</v>
+        <v>18877</v>
       </c>
       <c r="H51" s="11">
-        <v>12543</v>
+        <v>12377</v>
       </c>
       <c r="I51" s="11">
-        <v>18877</v>
+        <v>19377</v>
       </c>
       <c r="J51" s="11">
-        <v>12377</v>
+        <v>3847</v>
       </c>
       <c r="K51" s="11">
-        <v>19377</v>
+        <v>10812</v>
       </c>
       <c r="L51" s="11">
-        <v>3847</v>
+        <v>13186</v>
       </c>
       <c r="M51" s="11">
-        <v>10812</v>
+        <v>16921</v>
       </c>
       <c r="N51" s="11">
-        <v>13186</v>
+        <v>17204</v>
       </c>
       <c r="O51" s="11">
-        <v>16921</v>
+        <v>5671</v>
       </c>
       <c r="P51" s="11">
-        <v>17204</v>
+        <v>14270</v>
       </c>
       <c r="Q51" s="11">
-        <v>5671</v>
+        <v>14960</v>
       </c>
       <c r="R51" s="11">
-        <v>14270</v>
+        <v>9438</v>
       </c>
       <c r="S51" s="11">
-        <v>14960</v>
+        <v>12066</v>
       </c>
       <c r="T51" s="11">
-        <v>9438</v>
+        <v>12873</v>
       </c>
       <c r="U51" s="11">
-        <v>12066</v>
+        <v>13422</v>
       </c>
       <c r="V51" s="11">
-        <v>12873</v>
+        <v>4115</v>
       </c>
       <c r="W51" s="11">
-        <v>13422</v>
+        <v>22765</v>
       </c>
       <c r="X51" s="11">
-        <v>4115</v>
+        <v>19348</v>
       </c>
       <c r="Y51" s="11">
-        <v>22765</v>
+        <v>21066</v>
       </c>
       <c r="Z51" s="11">
-        <v>19348</v>
+        <v>14361</v>
       </c>
       <c r="AA51" s="11">
-        <v>21066</v>
+        <v>17495</v>
       </c>
       <c r="AB51" s="11">
-        <v>14361</v>
+        <v>18401</v>
       </c>
       <c r="AC51" s="11">
-        <v>17495</v>
+        <v>30175</v>
       </c>
       <c r="AD51" s="11">
-        <v>18401</v>
+        <v>41672</v>
       </c>
       <c r="AE51" s="11">
-        <v>30175</v>
+        <v>25032</v>
       </c>
       <c r="AF51" s="11">
-        <v>41672</v>
+        <v>31354</v>
       </c>
       <c r="AG51" s="11">
-        <v>25032</v>
-      </c>
-      <c r="AH51" s="11">
-        <v>31354</v>
-      </c>
-      <c r="AI51" s="11">
         <v>16112</v>
       </c>
-      <c r="AJ51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK51" s="11" t="s">
-        <v>57</v>
+      <c r="AH51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ51" s="11">
+        <v>43623</v>
+      </c>
+      <c r="AK51" s="11">
+        <v>37717</v>
       </c>
       <c r="AL51" s="11">
-        <v>43623</v>
+        <v>32439</v>
       </c>
       <c r="AM51" s="11">
-        <v>37717</v>
+        <v>39780</v>
       </c>
       <c r="AN51" s="11">
-        <v>32439</v>
+        <v>34651</v>
       </c>
       <c r="AO51" s="11">
-        <v>39780</v>
+        <v>44073</v>
       </c>
       <c r="AP51" s="11">
-        <v>34651</v>
+        <v>40422</v>
       </c>
       <c r="AQ51" s="11">
-        <v>44073</v>
+        <v>35453</v>
       </c>
       <c r="AR51" s="11">
-        <v>40422</v>
+        <v>39981</v>
       </c>
       <c r="AS51" s="11">
-        <v>35453</v>
+        <v>14970</v>
       </c>
       <c r="AT51" s="11">
-        <v>39981</v>
+        <v>28187</v>
       </c>
       <c r="AU51" s="11">
-        <v>14970</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="11">
-        <v>28187</v>
+        <v>45111</v>
       </c>
       <c r="AW51" s="11">
-        <v>0</v>
+        <v>56564</v>
       </c>
       <c r="AX51" s="11">
-        <v>45111</v>
+        <v>70231</v>
       </c>
       <c r="AY51" s="11">
-        <v>56564</v>
+        <v>105959</v>
       </c>
       <c r="AZ51" s="11">
-        <v>70231</v>
+        <v>92588</v>
       </c>
       <c r="BA51" s="11">
-        <v>105959</v>
+        <v>60091</v>
       </c>
       <c r="BB51" s="11">
-        <v>92588</v>
+        <v>47482</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6628,104 +6628,104 @@
       <c r="U52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>57</v>
+      <c r="V52" s="13">
+        <v>56874</v>
+      </c>
+      <c r="W52" s="13">
+        <v>252230</v>
       </c>
       <c r="X52" s="13">
-        <v>56874</v>
+        <v>162121</v>
       </c>
       <c r="Y52" s="13">
-        <v>252230</v>
+        <v>189578</v>
       </c>
       <c r="Z52" s="13">
-        <v>162121</v>
+        <v>178170</v>
       </c>
       <c r="AA52" s="13">
-        <v>189578</v>
+        <v>215376</v>
       </c>
       <c r="AB52" s="13">
-        <v>178170</v>
+        <v>146445</v>
       </c>
       <c r="AC52" s="13">
-        <v>215376</v>
+        <v>178635</v>
       </c>
       <c r="AD52" s="13">
-        <v>146445</v>
+        <v>288123</v>
       </c>
       <c r="AE52" s="13">
-        <v>178635</v>
+        <v>287747</v>
       </c>
       <c r="AF52" s="13">
-        <v>288123</v>
+        <v>266099</v>
       </c>
       <c r="AG52" s="13">
-        <v>287747</v>
+        <v>227488</v>
       </c>
       <c r="AH52" s="13">
-        <v>266099</v>
+        <v>123899</v>
       </c>
       <c r="AI52" s="13">
-        <v>227488</v>
+        <v>289154</v>
       </c>
       <c r="AJ52" s="13">
-        <v>123899</v>
+        <v>89329</v>
       </c>
       <c r="AK52" s="13">
-        <v>289154</v>
+        <v>44996</v>
       </c>
       <c r="AL52" s="13">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AM52" s="13">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AN52" s="13">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AO52" s="13">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AP52" s="13">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AQ52" s="13">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AR52" s="13">
-        <v>32455</v>
+        <v>24106</v>
       </c>
       <c r="AS52" s="13">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AT52" s="13">
-        <v>13524</v>
+        <v>132140</v>
       </c>
       <c r="AU52" s="13">
-        <v>117604</v>
+        <v>10103</v>
       </c>
       <c r="AV52" s="13">
-        <v>132140</v>
+        <v>162902</v>
       </c>
       <c r="AW52" s="13">
-        <v>10103</v>
+        <v>327393</v>
       </c>
       <c r="AX52" s="13">
-        <v>162902</v>
+        <v>456837</v>
       </c>
       <c r="AY52" s="13">
-        <v>327393</v>
+        <v>172656</v>
       </c>
       <c r="AZ52" s="13">
-        <v>456837</v>
+        <v>262000</v>
       </c>
       <c r="BA52" s="13">
-        <v>172656</v>
+        <v>358570</v>
       </c>
       <c r="BB52" s="13">
-        <v>262000</v>
+        <v>187929</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6880,11 +6880,11 @@
       <c r="AG54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI54" s="11" t="s">
-        <v>57</v>
+      <c r="AH54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="11">
+        <v>0</v>
       </c>
       <c r="AJ54" s="11">
         <v>0</v>
@@ -6898,11 +6898,11 @@
       <c r="AM54" s="11">
         <v>0</v>
       </c>
-      <c r="AN54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="11">
-        <v>0</v>
+      <c r="AN54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP54" s="11" t="s">
         <v>57</v>
@@ -7012,11 +7012,11 @@
       <c r="X55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z55" s="13" t="s">
-        <v>57</v>
+      <c r="Y55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="13">
+        <v>0</v>
       </c>
       <c r="AA55" s="13">
         <v>0</v>
@@ -7039,11 +7039,11 @@
       <c r="AG55" s="13">
         <v>0</v>
       </c>
-      <c r="AH55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="13">
-        <v>0</v>
+      <c r="AH55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ55" s="13" t="s">
         <v>57</v>
@@ -7171,11 +7171,11 @@
       <c r="X56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>57</v>
+      <c r="Y56" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="15">
+        <v>0</v>
       </c>
       <c r="AA56" s="15">
         <v>0</v>
@@ -7387,11 +7387,11 @@
       <c r="X58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y58" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="15" t="s">
-        <v>57</v>
+      <c r="Y58" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="15">
+        <v>0</v>
       </c>
       <c r="AA58" s="15">
         <v>0</v>
@@ -7603,11 +7603,11 @@
       <c r="X60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>57</v>
+      <c r="Y60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>0</v>
       </c>
       <c r="AA60" s="11">
         <v>0</v>
@@ -7701,154 +7701,154 @@
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17">
-        <v>63358</v>
+        <v>86548</v>
       </c>
       <c r="F61" s="17">
-        <v>87433</v>
+        <v>108461</v>
       </c>
       <c r="G61" s="17">
-        <v>86548</v>
+        <v>171803</v>
       </c>
       <c r="H61" s="17">
-        <v>108461</v>
+        <v>146935</v>
       </c>
       <c r="I61" s="17">
-        <v>171803</v>
+        <v>188235</v>
       </c>
       <c r="J61" s="17">
-        <v>146935</v>
+        <v>39079</v>
       </c>
       <c r="K61" s="17">
-        <v>188235</v>
+        <v>171898</v>
       </c>
       <c r="L61" s="17">
-        <v>39079</v>
+        <v>147926</v>
       </c>
       <c r="M61" s="17">
-        <v>171898</v>
+        <v>164996</v>
       </c>
       <c r="N61" s="17">
-        <v>147926</v>
+        <v>222051</v>
       </c>
       <c r="O61" s="17">
-        <v>164996</v>
+        <v>245295</v>
       </c>
       <c r="P61" s="17">
-        <v>222051</v>
+        <v>251090</v>
       </c>
       <c r="Q61" s="17">
-        <v>245295</v>
+        <v>226806</v>
       </c>
       <c r="R61" s="17">
-        <v>251090</v>
+        <v>258675</v>
       </c>
       <c r="S61" s="17">
-        <v>226806</v>
+        <v>237965</v>
       </c>
       <c r="T61" s="17">
-        <v>258675</v>
+        <v>219823</v>
       </c>
       <c r="U61" s="17">
-        <v>237965</v>
+        <v>249699</v>
       </c>
       <c r="V61" s="17">
-        <v>219823</v>
+        <v>63709</v>
       </c>
       <c r="W61" s="17">
-        <v>249699</v>
+        <v>287966</v>
       </c>
       <c r="X61" s="17">
-        <v>63709</v>
+        <v>193598</v>
       </c>
       <c r="Y61" s="17">
-        <v>287966</v>
+        <v>223606</v>
       </c>
       <c r="Z61" s="17">
-        <v>193598</v>
+        <v>204369</v>
       </c>
       <c r="AA61" s="17">
-        <v>223606</v>
+        <v>247911</v>
       </c>
       <c r="AB61" s="17">
-        <v>204369</v>
+        <v>193054</v>
       </c>
       <c r="AC61" s="17">
-        <v>247911</v>
+        <v>233174</v>
       </c>
       <c r="AD61" s="17">
-        <v>193054</v>
+        <v>339114</v>
       </c>
       <c r="AE61" s="17">
-        <v>233174</v>
+        <v>337907</v>
       </c>
       <c r="AF61" s="17">
-        <v>339114</v>
+        <v>317977</v>
       </c>
       <c r="AG61" s="17">
-        <v>337907</v>
+        <v>252253</v>
       </c>
       <c r="AH61" s="17">
-        <v>317977</v>
+        <v>123899</v>
       </c>
       <c r="AI61" s="17">
-        <v>252253</v>
+        <v>289154</v>
       </c>
       <c r="AJ61" s="17">
-        <v>123899</v>
+        <v>275154</v>
       </c>
       <c r="AK61" s="17">
-        <v>289154</v>
+        <v>272248</v>
       </c>
       <c r="AL61" s="17">
-        <v>275154</v>
+        <v>283898</v>
       </c>
       <c r="AM61" s="17">
-        <v>272248</v>
+        <v>293463</v>
       </c>
       <c r="AN61" s="17">
-        <v>283898</v>
+        <v>322949</v>
       </c>
       <c r="AO61" s="17">
-        <v>293463</v>
+        <v>355230</v>
       </c>
       <c r="AP61" s="17">
-        <v>322949</v>
+        <v>369693</v>
       </c>
       <c r="AQ61" s="17">
-        <v>355230</v>
+        <v>298594</v>
       </c>
       <c r="AR61" s="17">
-        <v>369693</v>
+        <v>-273527</v>
       </c>
       <c r="AS61" s="17">
-        <v>298594</v>
+        <v>160250</v>
       </c>
       <c r="AT61" s="17">
-        <v>320545</v>
+        <v>169799</v>
       </c>
       <c r="AU61" s="17">
-        <v>160250</v>
+        <v>10103</v>
       </c>
       <c r="AV61" s="17">
-        <v>169799</v>
+        <v>280148</v>
       </c>
       <c r="AW61" s="17">
-        <v>10103</v>
+        <v>438629</v>
       </c>
       <c r="AX61" s="17">
-        <v>280148</v>
+        <v>550483</v>
       </c>
       <c r="AY61" s="17">
-        <v>438629</v>
+        <v>329928</v>
       </c>
       <c r="AZ61" s="17">
-        <v>550483</v>
+        <v>450046</v>
       </c>
       <c r="BA61" s="17">
-        <v>329928</v>
+        <v>530214</v>
       </c>
       <c r="BB61" s="17">
-        <v>450046</v>
+        <v>300475</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8344,104 +8344,104 @@
       <c r="U68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W68" s="11" t="s">
-        <v>57</v>
+      <c r="V68" s="11">
+        <v>302222222</v>
+      </c>
+      <c r="W68" s="11">
+        <v>244735849</v>
       </c>
       <c r="X68" s="11">
-        <v>302222222</v>
+        <v>258063830</v>
       </c>
       <c r="Y68" s="11">
-        <v>244735849</v>
+        <v>249269231</v>
       </c>
       <c r="Z68" s="11">
-        <v>258063830</v>
+        <v>219222222</v>
       </c>
       <c r="AA68" s="11">
-        <v>249269231</v>
+        <v>221176471</v>
       </c>
       <c r="AB68" s="11">
-        <v>219222222</v>
+        <v>222110236</v>
       </c>
       <c r="AC68" s="11">
-        <v>221176471</v>
+        <v>264826087</v>
       </c>
       <c r="AD68" s="11">
-        <v>222110236</v>
+        <v>291218750</v>
       </c>
       <c r="AE68" s="11">
-        <v>264826087</v>
+        <v>256411020</v>
       </c>
       <c r="AF68" s="11">
-        <v>291218750</v>
+        <v>259797468</v>
       </c>
       <c r="AG68" s="11">
-        <v>256411020</v>
-      </c>
-      <c r="AH68" s="11">
-        <v>259797468</v>
-      </c>
-      <c r="AI68" s="11">
         <v>240361111</v>
       </c>
-      <c r="AJ68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK68" s="11" t="s">
-        <v>57</v>
+      <c r="AH68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ68" s="11">
+        <v>300338028</v>
+      </c>
+      <c r="AK68" s="11">
+        <v>297757576</v>
       </c>
       <c r="AL68" s="11">
-        <v>300338028</v>
+        <v>305357143</v>
       </c>
       <c r="AM68" s="11">
-        <v>297757576</v>
+        <v>321107143</v>
       </c>
       <c r="AN68" s="11">
-        <v>305357143</v>
+        <v>330102564</v>
       </c>
       <c r="AO68" s="11">
-        <v>321107143</v>
+        <v>388909091</v>
       </c>
       <c r="AP68" s="11">
-        <v>330102564</v>
+        <v>394408602</v>
       </c>
       <c r="AQ68" s="11">
-        <v>388909091</v>
+        <v>412563380</v>
       </c>
       <c r="AR68" s="11">
-        <v>394408602</v>
+        <v>423448276</v>
       </c>
       <c r="AS68" s="11">
-        <v>412563380</v>
+        <v>422941176</v>
       </c>
       <c r="AT68" s="11">
-        <v>423448276</v>
-      </c>
-      <c r="AU68" s="11">
-        <v>422941176</v>
+        <v>728615385</v>
+      </c>
+      <c r="AU68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV68" s="11">
-        <v>728615385</v>
-      </c>
-      <c r="AW68" s="11" t="s">
-        <v>57</v>
+        <v>936818182</v>
+      </c>
+      <c r="AW68" s="11">
+        <v>700923077</v>
       </c>
       <c r="AX68" s="11">
-        <v>936818182</v>
+        <v>780500000</v>
       </c>
       <c r="AY68" s="11">
-        <v>700923077</v>
+        <v>900228070</v>
       </c>
       <c r="AZ68" s="11">
-        <v>780500000</v>
+        <v>815880342</v>
       </c>
       <c r="BA68" s="11">
-        <v>900228070</v>
+        <v>814255474</v>
       </c>
       <c r="BB68" s="11">
-        <v>815880342</v>
+        <v>813300000</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8453,62 +8453,62 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>79125000</v>
+        <v>92875380</v>
       </c>
       <c r="F69" s="13">
-        <v>77561680</v>
+        <v>97588312</v>
       </c>
       <c r="G69" s="13">
-        <v>92875380</v>
+        <v>111326996</v>
       </c>
       <c r="H69" s="13">
-        <v>97588312</v>
+        <v>109612293</v>
       </c>
       <c r="I69" s="13">
-        <v>111326996</v>
+        <v>86570988</v>
       </c>
       <c r="J69" s="13">
-        <v>109612293</v>
+        <v>104259386</v>
       </c>
       <c r="K69" s="13">
-        <v>86570988</v>
+        <v>121443201</v>
       </c>
       <c r="L69" s="13">
-        <v>104259386</v>
+        <v>125027311</v>
       </c>
       <c r="M69" s="13">
-        <v>121443201</v>
+        <v>126610906</v>
       </c>
       <c r="N69" s="13">
-        <v>125027311</v>
+        <v>133726836</v>
       </c>
       <c r="O69" s="13">
-        <v>126610906</v>
+        <v>146577581</v>
       </c>
       <c r="P69" s="13">
-        <v>133726836</v>
+        <v>142046419</v>
       </c>
       <c r="Q69" s="13">
-        <v>146577581</v>
+        <v>147368256</v>
       </c>
       <c r="R69" s="13">
-        <v>142046419</v>
+        <v>137694379</v>
       </c>
       <c r="S69" s="13">
-        <v>147368256</v>
+        <v>146424016</v>
       </c>
       <c r="T69" s="13">
-        <v>137694379</v>
+        <v>133495520</v>
       </c>
       <c r="U69" s="13">
-        <v>146424016</v>
-      </c>
-      <c r="V69" s="13">
-        <v>133495520</v>
-      </c>
-      <c r="W69" s="13">
         <v>121243508</v>
       </c>
+      <c r="V69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X69" s="13" t="s">
         <v>57</v>
       </c>
@@ -8545,41 +8545,41 @@
       <c r="AI69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK69" s="13" t="s">
-        <v>57</v>
+      <c r="AJ69" s="13">
+        <v>266838852</v>
+      </c>
+      <c r="AK69" s="13">
+        <v>275627301</v>
       </c>
       <c r="AL69" s="13">
-        <v>266838852</v>
+        <v>278751852</v>
       </c>
       <c r="AM69" s="13">
-        <v>275627301</v>
+        <v>291728878</v>
       </c>
       <c r="AN69" s="13">
-        <v>278751852</v>
+        <v>309455971</v>
       </c>
       <c r="AO69" s="13">
-        <v>291728878</v>
+        <v>341912073</v>
       </c>
       <c r="AP69" s="13">
-        <v>309455971</v>
+        <v>342735178</v>
       </c>
       <c r="AQ69" s="13">
-        <v>341912073</v>
+        <v>368322470</v>
       </c>
       <c r="AR69" s="13">
-        <v>342735178</v>
+        <v>289948691</v>
       </c>
       <c r="AS69" s="13">
-        <v>368322470</v>
-      </c>
-      <c r="AT69" s="13">
-        <v>370612245</v>
-      </c>
-      <c r="AU69" s="13">
         <v>369333333</v>
+      </c>
+      <c r="AT69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV69" s="13" t="s">
         <v>57</v>
@@ -8612,25 +8612,25 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>111891304</v>
+        <v>122245455</v>
       </c>
       <c r="F70" s="11">
-        <v>125540541</v>
+        <v>128240741</v>
       </c>
       <c r="G70" s="11">
-        <v>122245455</v>
+        <v>145133333</v>
       </c>
       <c r="H70" s="11">
-        <v>128240741</v>
+        <v>145229167</v>
       </c>
       <c r="I70" s="11">
-        <v>145133333</v>
-      </c>
-      <c r="J70" s="11">
-        <v>145229167</v>
-      </c>
-      <c r="K70" s="11">
         <v>185363239</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L70" s="11" t="s">
         <v>57</v>
@@ -8785,47 +8785,47 @@
       <c r="I71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>57</v>
+      <c r="J71" s="13">
+        <v>223047619</v>
+      </c>
+      <c r="K71" s="13">
+        <v>172146552</v>
       </c>
       <c r="L71" s="13">
-        <v>223047619</v>
+        <v>191634146</v>
       </c>
       <c r="M71" s="13">
-        <v>172146552</v>
+        <v>230875000</v>
       </c>
       <c r="N71" s="13">
-        <v>191634146</v>
+        <v>244073171</v>
       </c>
       <c r="O71" s="13">
-        <v>230875000</v>
+        <v>89868132</v>
       </c>
       <c r="P71" s="13">
-        <v>244073171</v>
+        <v>175302326</v>
       </c>
       <c r="Q71" s="13">
-        <v>89868132</v>
+        <v>175654135</v>
       </c>
       <c r="R71" s="13">
-        <v>175302326</v>
+        <v>173518519</v>
       </c>
       <c r="S71" s="13">
-        <v>175654135</v>
+        <v>173620690</v>
       </c>
       <c r="T71" s="13">
-        <v>173518519</v>
+        <v>203815385</v>
       </c>
       <c r="U71" s="13">
-        <v>173620690</v>
-      </c>
-      <c r="V71" s="13">
-        <v>203815385</v>
-      </c>
-      <c r="W71" s="13">
         <v>290688889</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X71" s="13" t="s">
         <v>57</v>
@@ -8930,154 +8930,154 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>109869565</v>
+        <v>113103774</v>
       </c>
       <c r="F72" s="11">
-        <v>132073394</v>
+        <v>118330189</v>
       </c>
       <c r="G72" s="11">
-        <v>113103774</v>
+        <v>134835714</v>
       </c>
       <c r="H72" s="11">
-        <v>118330189</v>
+        <v>134532609</v>
       </c>
       <c r="I72" s="11">
-        <v>134835714</v>
+        <v>113315789</v>
       </c>
       <c r="J72" s="11">
-        <v>134532609</v>
+        <v>137392857</v>
       </c>
       <c r="K72" s="11">
-        <v>113315789</v>
+        <v>146108108</v>
       </c>
       <c r="L72" s="11">
-        <v>137392857</v>
+        <v>151563218</v>
       </c>
       <c r="M72" s="11">
-        <v>146108108</v>
+        <v>176260417</v>
       </c>
       <c r="N72" s="11">
-        <v>151563218</v>
+        <v>187000000</v>
       </c>
       <c r="O72" s="11">
-        <v>176260417</v>
+        <v>66717647</v>
       </c>
       <c r="P72" s="11">
-        <v>187000000</v>
+        <v>150210526</v>
       </c>
       <c r="Q72" s="11">
-        <v>66717647</v>
+        <v>152653061</v>
       </c>
       <c r="R72" s="11">
-        <v>150210526</v>
+        <v>149809524</v>
       </c>
       <c r="S72" s="11">
-        <v>152653061</v>
+        <v>148962963</v>
       </c>
       <c r="T72" s="11">
-        <v>149809524</v>
+        <v>151447059</v>
       </c>
       <c r="U72" s="11">
-        <v>148962963</v>
+        <v>125439252</v>
       </c>
       <c r="V72" s="11">
-        <v>151447059</v>
+        <v>146964286</v>
       </c>
       <c r="W72" s="11">
-        <v>125439252</v>
+        <v>175115385</v>
       </c>
       <c r="X72" s="11">
-        <v>146964286</v>
+        <v>193480000</v>
       </c>
       <c r="Y72" s="11">
-        <v>175115385</v>
+        <v>196878505</v>
       </c>
       <c r="Z72" s="11">
-        <v>193480000</v>
+        <v>179512500</v>
       </c>
       <c r="AA72" s="11">
-        <v>196878505</v>
+        <v>184157895</v>
       </c>
       <c r="AB72" s="11">
-        <v>179512500</v>
+        <v>175247619</v>
       </c>
       <c r="AC72" s="11">
-        <v>184157895</v>
+        <v>232115385</v>
       </c>
       <c r="AD72" s="11">
-        <v>175247619</v>
+        <v>262088050</v>
       </c>
       <c r="AE72" s="11">
-        <v>232115385</v>
+        <v>231779352</v>
       </c>
       <c r="AF72" s="11">
-        <v>262088050</v>
+        <v>235744361</v>
       </c>
       <c r="AG72" s="11">
-        <v>231779352</v>
-      </c>
-      <c r="AH72" s="11">
-        <v>235744361</v>
-      </c>
-      <c r="AI72" s="11">
         <v>203949367</v>
       </c>
-      <c r="AJ72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK72" s="11" t="s">
-        <v>57</v>
+      <c r="AH72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ72" s="11">
+        <v>296755102</v>
+      </c>
+      <c r="AK72" s="11">
+        <v>294664063</v>
       </c>
       <c r="AL72" s="11">
-        <v>296755102</v>
+        <v>292243243</v>
       </c>
       <c r="AM72" s="11">
-        <v>294664063</v>
+        <v>318240000</v>
       </c>
       <c r="AN72" s="11">
-        <v>292243243</v>
+        <v>320842593</v>
       </c>
       <c r="AO72" s="11">
-        <v>318240000</v>
+        <v>376692308</v>
       </c>
       <c r="AP72" s="11">
-        <v>320842593</v>
+        <v>377775701</v>
       </c>
       <c r="AQ72" s="11">
-        <v>376692308</v>
+        <v>393922222</v>
       </c>
       <c r="AR72" s="11">
-        <v>377775701</v>
+        <v>399810000</v>
       </c>
       <c r="AS72" s="11">
-        <v>393922222</v>
+        <v>393947368</v>
       </c>
       <c r="AT72" s="11">
-        <v>399810000</v>
-      </c>
-      <c r="AU72" s="11">
-        <v>393947368</v>
+        <v>447412698</v>
+      </c>
+      <c r="AU72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV72" s="11">
-        <v>447412698</v>
-      </c>
-      <c r="AW72" s="11" t="s">
-        <v>57</v>
+        <v>635366197</v>
+      </c>
+      <c r="AW72" s="11">
+        <v>844238806</v>
       </c>
       <c r="AX72" s="11">
-        <v>635366197</v>
+        <v>867049383</v>
       </c>
       <c r="AY72" s="11">
-        <v>844238806</v>
+        <v>868516393</v>
       </c>
       <c r="AZ72" s="11">
-        <v>867049383</v>
+        <v>752747967</v>
       </c>
       <c r="BA72" s="11">
-        <v>868516393</v>
+        <v>751137500</v>
       </c>
       <c r="BB72" s="11">
-        <v>752747967</v>
+        <v>753682540</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9139,104 +9139,104 @@
       <c r="U73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>57</v>
+      <c r="V73" s="13">
+        <v>114896970</v>
+      </c>
+      <c r="W73" s="13">
+        <v>155889988</v>
       </c>
       <c r="X73" s="13">
-        <v>114896970</v>
+        <v>162283283</v>
       </c>
       <c r="Y73" s="13">
-        <v>155889988</v>
+        <v>164564236</v>
       </c>
       <c r="Z73" s="13">
-        <v>162283283</v>
+        <v>153594828</v>
       </c>
       <c r="AA73" s="13">
-        <v>164564236</v>
+        <v>178291391</v>
       </c>
       <c r="AB73" s="13">
-        <v>153594828</v>
+        <v>161996681</v>
       </c>
       <c r="AC73" s="13">
-        <v>178291391</v>
+        <v>210158824</v>
       </c>
       <c r="AD73" s="13">
-        <v>161996681</v>
+        <v>236360131</v>
       </c>
       <c r="AE73" s="13">
-        <v>210158824</v>
+        <v>233310536</v>
       </c>
       <c r="AF73" s="13">
-        <v>236360131</v>
+        <v>237164884</v>
       </c>
       <c r="AG73" s="13">
-        <v>233310536</v>
+        <v>150058047</v>
       </c>
       <c r="AH73" s="13">
-        <v>237164884</v>
+        <v>241990234</v>
       </c>
       <c r="AI73" s="13">
-        <v>150058047</v>
+        <v>245253605</v>
       </c>
       <c r="AJ73" s="13">
-        <v>241990234</v>
+        <v>232627604</v>
       </c>
       <c r="AK73" s="13">
-        <v>245253605</v>
+        <v>205461187</v>
       </c>
       <c r="AL73" s="13">
-        <v>232627604</v>
+        <v>203809524</v>
       </c>
       <c r="AM73" s="13">
-        <v>205461187</v>
+        <v>205400000</v>
       </c>
       <c r="AN73" s="13">
-        <v>203809524</v>
+        <v>207527473</v>
       </c>
       <c r="AO73" s="13">
-        <v>205400000</v>
+        <v>229506849</v>
       </c>
       <c r="AP73" s="13">
-        <v>207527473</v>
+        <v>220782313</v>
       </c>
       <c r="AQ73" s="13">
-        <v>229506849</v>
+        <v>227583333</v>
       </c>
       <c r="AR73" s="13">
-        <v>220782313</v>
+        <v>232569377</v>
       </c>
       <c r="AS73" s="13">
-        <v>227583333</v>
+        <v>254004320</v>
       </c>
       <c r="AT73" s="13">
-        <v>225400000</v>
+        <v>367055556</v>
       </c>
       <c r="AU73" s="13">
-        <v>254004320</v>
+        <v>315718750</v>
       </c>
       <c r="AV73" s="13">
-        <v>367055556</v>
+        <v>515512658</v>
       </c>
       <c r="AW73" s="13">
-        <v>315718750</v>
+        <v>650880716</v>
       </c>
       <c r="AX73" s="13">
-        <v>515512658</v>
+        <v>721701422</v>
       </c>
       <c r="AY73" s="13">
-        <v>650880716</v>
+        <v>501906977</v>
       </c>
       <c r="AZ73" s="13">
-        <v>721701422</v>
+        <v>563440860</v>
       </c>
       <c r="BA73" s="13">
-        <v>501906977</v>
+        <v>534381520</v>
       </c>
       <c r="BB73" s="13">
-        <v>563440860</v>
+        <v>456138350</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9391,11 +9391,11 @@
       <c r="AG75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI75" s="11" t="s">
-        <v>57</v>
+      <c r="AH75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="11">
+        <v>0</v>
       </c>
       <c r="AJ75" s="11">
         <v>0</v>
@@ -9409,11 +9409,11 @@
       <c r="AM75" s="11">
         <v>0</v>
       </c>
-      <c r="AN75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO75" s="11">
-        <v>0</v>
+      <c r="AN75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO75" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP75" s="11" t="s">
         <v>57</v>
@@ -9523,11 +9523,11 @@
       <c r="X76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z76" s="13" t="s">
-        <v>57</v>
+      <c r="Y76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="13">
+        <v>0</v>
       </c>
       <c r="AA76" s="13">
         <v>0</v>
@@ -9550,11 +9550,11 @@
       <c r="AG76" s="13">
         <v>0</v>
       </c>
-      <c r="AH76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="13">
-        <v>0</v>
+      <c r="AH76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ76" s="13" t="s">
         <v>57</v>

--- a/database/industries/ghaza/ghegorji/product/monthly.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegorji\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4578BB0-7808-4C3B-9C23-C05BBBD271E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7DF06-998F-4D7D-93C9-E5570A4DCA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غگرجی-بیسکویت‌  گرجی‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر محصولات</t>
@@ -739,12 +739,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -799,7 +799,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -968,7 +968,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1459,113 +1459,113 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>16</v>
+      </c>
+      <c r="U11" s="11">
+        <v>32</v>
       </c>
       <c r="V11" s="11">
+        <v>38</v>
+      </c>
+      <c r="W11" s="11">
+        <v>25</v>
+      </c>
+      <c r="X11" s="11">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>106</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>27</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>46</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>96</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>65</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>104</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>31</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>94</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>79</v>
+      </c>
+      <c r="AV11" s="11">
         <v>16</v>
       </c>
-      <c r="W11" s="11">
-        <v>32</v>
-      </c>
-      <c r="X11" s="11">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>57</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>50</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>106</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>49</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>30</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>27</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>38</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>46</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>96</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>65</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>104</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>31</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>94</v>
-      </c>
       <c r="AW11" s="11">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AX11" s="11">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="AY11" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AZ11" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="BA11" s="11">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="BB11" s="11">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1574,56 +1574,56 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>761</v>
+        <v>1293</v>
       </c>
       <c r="F12" s="13">
-        <v>808</v>
+        <v>980</v>
       </c>
       <c r="G12" s="13">
-        <v>1293</v>
+        <v>650</v>
       </c>
       <c r="H12" s="13">
-        <v>980</v>
+        <v>337</v>
       </c>
       <c r="I12" s="13">
-        <v>650</v>
+        <v>1344</v>
       </c>
       <c r="J12" s="13">
-        <v>337</v>
+        <v>1118</v>
       </c>
       <c r="K12" s="13">
-        <v>1344</v>
+        <v>912</v>
       </c>
       <c r="L12" s="13">
-        <v>1118</v>
+        <v>1407</v>
       </c>
       <c r="M12" s="13">
-        <v>912</v>
+        <v>1598</v>
       </c>
       <c r="N12" s="13">
-        <v>1407</v>
+        <v>1640</v>
       </c>
       <c r="O12" s="13">
+        <v>1432</v>
+      </c>
+      <c r="P12" s="13">
         <v>1598</v>
       </c>
-      <c r="P12" s="13">
-        <v>1640</v>
-      </c>
       <c r="Q12" s="13">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="R12" s="13">
-        <v>1598</v>
+        <v>1506</v>
       </c>
       <c r="S12" s="13">
-        <v>1339</v>
-      </c>
-      <c r="T12" s="13">
-        <v>1506</v>
-      </c>
-      <c r="U12" s="13">
         <v>1575</v>
       </c>
+      <c r="T12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1660,41 +1660,41 @@
       <c r="AG12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>57</v>
+      <c r="AH12" s="13">
+        <v>566</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>452</v>
       </c>
       <c r="AJ12" s="13">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="AK12" s="13">
-        <v>452</v>
+        <v>811</v>
       </c>
       <c r="AL12" s="13">
-        <v>907</v>
+        <v>694</v>
       </c>
       <c r="AM12" s="13">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="AN12" s="13">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="AO12" s="13">
-        <v>791</v>
+        <v>531</v>
       </c>
       <c r="AP12" s="13">
-        <v>760</v>
+        <v>622</v>
       </c>
       <c r="AQ12" s="13">
-        <v>531</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>622</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT12" s="13" t="s">
         <v>57</v>
@@ -1724,7 +1724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1733,20 +1733,20 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="F13" s="11">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="G13" s="11">
-        <v>79</v>
-      </c>
-      <c r="H13" s="11">
-        <v>374</v>
-      </c>
-      <c r="I13" s="11">
         <v>392</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1900,48 +1900,48 @@
       <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>130</v>
       </c>
       <c r="J14" s="13">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="K14" s="13">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="L14" s="13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M14" s="13">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="N14" s="13">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="O14" s="13">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="P14" s="13">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R14" s="13">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="S14" s="13">
-        <v>60</v>
-      </c>
-      <c r="T14" s="13">
-        <v>80</v>
-      </c>
-      <c r="U14" s="13">
         <v>78</v>
       </c>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2051,157 +2051,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="F15" s="11">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G15" s="11">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="H15" s="11">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I15" s="11">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="J15" s="11">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K15" s="11">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="L15" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M15" s="11">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N15" s="11">
+        <v>228</v>
+      </c>
+      <c r="O15" s="11">
+        <v>14</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>84</v>
+      </c>
+      <c r="R15" s="11">
+        <v>95</v>
+      </c>
+      <c r="S15" s="11">
+        <v>76</v>
+      </c>
+      <c r="T15" s="11">
+        <v>43</v>
+      </c>
+      <c r="U15" s="11">
+        <v>163</v>
+      </c>
+      <c r="V15" s="11">
         <v>85</v>
       </c>
-      <c r="O15" s="11">
-        <v>97</v>
-      </c>
-      <c r="P15" s="11">
-        <v>228</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>14</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1</v>
-      </c>
-      <c r="S15" s="11">
-        <v>84</v>
-      </c>
-      <c r="T15" s="11">
-        <v>95</v>
-      </c>
-      <c r="U15" s="11">
+      <c r="W15" s="11">
+        <v>112</v>
+      </c>
+      <c r="X15" s="11">
         <v>76</v>
       </c>
-      <c r="V15" s="11">
-        <v>43</v>
-      </c>
-      <c r="W15" s="11">
+      <c r="Y15" s="11">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>135</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>213</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>83</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>116</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>40</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>111</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>125</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>94</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>111</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>123</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>83</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>107</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>52</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>39</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>53</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>56</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>98</v>
+      </c>
+      <c r="AW15" s="11">
         <v>163</v>
       </c>
-      <c r="X15" s="11">
-        <v>85</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>76</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>112</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>135</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>213</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>83</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>116</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>40</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>78</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>111</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>125</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>94</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>111</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>123</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>83</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>107</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>45</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>39</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>53</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>56</v>
-      </c>
       <c r="AX15" s="11">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AY15" s="11">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="AZ15" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="BA15" s="11">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="BB15" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2254,113 +2254,113 @@
       <c r="S16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>57</v>
+      <c r="T16" s="13">
+        <v>691</v>
+      </c>
+      <c r="U16" s="13">
+        <v>1918</v>
       </c>
       <c r="V16" s="13">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="W16" s="13">
-        <v>1918</v>
+        <v>1152</v>
       </c>
       <c r="X16" s="13">
-        <v>750</v>
+        <v>1059</v>
       </c>
       <c r="Y16" s="13">
-        <v>1152</v>
+        <v>1188</v>
       </c>
       <c r="Z16" s="13">
-        <v>1059</v>
+        <v>797</v>
       </c>
       <c r="AA16" s="13">
+        <v>1070</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>1628</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>980</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>926</v>
+      </c>
+      <c r="AE16" s="13">
         <v>1188</v>
       </c>
-      <c r="AB16" s="13">
-        <v>797</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>1070</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>1628</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>980</v>
-      </c>
       <c r="AF16" s="13">
-        <v>926</v>
+        <v>710</v>
       </c>
       <c r="AG16" s="13">
-        <v>1188</v>
+        <v>1274</v>
       </c>
       <c r="AH16" s="13">
-        <v>710</v>
+        <v>384</v>
       </c>
       <c r="AI16" s="13">
-        <v>1274</v>
+        <v>219</v>
       </c>
       <c r="AJ16" s="13">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AK16" s="13">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AL16" s="13">
+        <v>91</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>147</v>
+      </c>
+      <c r="AO16" s="13">
         <v>84</v>
       </c>
-      <c r="AM16" s="13">
-        <v>65</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>91</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>146</v>
-      </c>
       <c r="AP16" s="13">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AQ16" s="13">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AR16" s="13">
-        <v>60</v>
+        <v>353</v>
       </c>
       <c r="AS16" s="13">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="AT16" s="13">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="AU16" s="13">
-        <v>98</v>
+        <v>605</v>
       </c>
       <c r="AV16" s="13">
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="AW16" s="13">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="AX16" s="13">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="AY16" s="13">
-        <v>563</v>
+        <v>680</v>
       </c>
       <c r="AZ16" s="13">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="BA16" s="13">
-        <v>680</v>
+        <v>398</v>
       </c>
       <c r="BB16" s="13">
-        <v>549</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>55</v>
       </c>
@@ -2506,14 +2506,14 @@
       <c r="AE18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="11" t="s">
-        <v>57</v>
+      <c r="AF18" s="11">
+        <v>0</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="11">
-        <v>0</v>
+      <c r="AH18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI18" s="11" t="s">
         <v>57</v>
@@ -2576,7 +2576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>62</v>
       </c>
@@ -2638,11 +2638,11 @@
       <c r="V19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>57</v>
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0</v>
       </c>
       <c r="Y19" s="13">
         <v>0</v>
@@ -2665,11 +2665,11 @@
       <c r="AE19" s="13">
         <v>0</v>
       </c>
-      <c r="AF19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
+      <c r="AF19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH19" s="13" t="s">
         <v>57</v>
@@ -2735,7 +2735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>64</v>
       </c>
@@ -2795,11 +2795,11 @@
       <c r="V20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>57</v>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
       </c>
       <c r="Y20" s="15">
         <v>0</v>
@@ -2892,164 +2892,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>1012</v>
+        <v>1566</v>
       </c>
       <c r="F21" s="17">
-        <v>1046</v>
+        <v>1471</v>
       </c>
       <c r="G21" s="17">
-        <v>1566</v>
+        <v>1116</v>
       </c>
       <c r="H21" s="17">
-        <v>1471</v>
+        <v>361</v>
       </c>
       <c r="I21" s="17">
-        <v>1116</v>
+        <v>1615</v>
       </c>
       <c r="J21" s="17">
-        <v>361</v>
+        <v>1268</v>
       </c>
       <c r="K21" s="17">
-        <v>1615</v>
+        <v>1016</v>
       </c>
       <c r="L21" s="17">
-        <v>1268</v>
+        <v>1553</v>
       </c>
       <c r="M21" s="17">
-        <v>1016</v>
+        <v>1820</v>
       </c>
       <c r="N21" s="17">
-        <v>1553</v>
+        <v>2089</v>
       </c>
       <c r="O21" s="17">
-        <v>1820</v>
+        <v>1516</v>
       </c>
       <c r="P21" s="17">
-        <v>2089</v>
+        <v>1633</v>
       </c>
       <c r="Q21" s="17">
-        <v>1516</v>
+        <v>1483</v>
       </c>
       <c r="R21" s="17">
-        <v>1633</v>
+        <v>1681</v>
       </c>
       <c r="S21" s="17">
-        <v>1483</v>
+        <v>1729</v>
       </c>
       <c r="T21" s="17">
-        <v>1681</v>
+        <v>750</v>
       </c>
       <c r="U21" s="17">
-        <v>1729</v>
+        <v>2113</v>
       </c>
       <c r="V21" s="17">
-        <v>750</v>
+        <v>873</v>
       </c>
       <c r="W21" s="17">
-        <v>2113</v>
+        <v>1289</v>
       </c>
       <c r="X21" s="17">
-        <v>873</v>
+        <v>1192</v>
       </c>
       <c r="Y21" s="17">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="Z21" s="17">
-        <v>1192</v>
+        <v>1015</v>
       </c>
       <c r="AA21" s="17">
-        <v>1313</v>
+        <v>1254</v>
       </c>
       <c r="AB21" s="17">
-        <v>1015</v>
+        <v>1867</v>
       </c>
       <c r="AC21" s="17">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="AD21" s="17">
-        <v>1867</v>
+        <v>1115</v>
       </c>
       <c r="AE21" s="17">
-        <v>1150</v>
+        <v>1246</v>
       </c>
       <c r="AF21" s="17">
-        <v>1115</v>
+        <v>710</v>
       </c>
       <c r="AG21" s="17">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="AH21" s="17">
-        <v>710</v>
+        <v>1058</v>
       </c>
       <c r="AI21" s="17">
-        <v>1274</v>
+        <v>817</v>
       </c>
       <c r="AJ21" s="17">
-        <v>1058</v>
+        <v>1140</v>
       </c>
       <c r="AK21" s="17">
-        <v>817</v>
+        <v>1031</v>
       </c>
       <c r="AL21" s="17">
-        <v>1140</v>
+        <v>917</v>
       </c>
       <c r="AM21" s="17">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="AN21" s="17">
-        <v>917</v>
+        <v>1126</v>
       </c>
       <c r="AO21" s="17">
-        <v>1094</v>
+        <v>763</v>
       </c>
       <c r="AP21" s="17">
-        <v>1126</v>
+        <v>893</v>
       </c>
       <c r="AQ21" s="17">
+        <v>497</v>
+      </c>
+      <c r="AR21" s="17">
+        <v>423</v>
+      </c>
+      <c r="AS21" s="17">
+        <v>137</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>369</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>740</v>
+      </c>
+      <c r="AV21" s="17">
+        <v>744</v>
+      </c>
+      <c r="AW21" s="17">
         <v>763</v>
       </c>
-      <c r="AR21" s="17">
-        <v>893</v>
-      </c>
-      <c r="AS21" s="17">
-        <v>497</v>
-      </c>
-      <c r="AT21" s="17">
-        <v>423</v>
-      </c>
-      <c r="AU21" s="17">
-        <v>137</v>
-      </c>
-      <c r="AV21" s="17">
-        <v>369</v>
-      </c>
-      <c r="AW21" s="17">
-        <v>740</v>
-      </c>
       <c r="AX21" s="17">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="AY21" s="17">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="AZ21" s="17">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="BA21" s="17">
-        <v>860</v>
+        <v>621</v>
       </c>
       <c r="BB21" s="17">
-        <v>759</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3104,7 +3104,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3159,7 +3159,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3214,7 +3214,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>66</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3426,7 +3426,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3536,113 +3536,113 @@
       <c r="S28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>57</v>
+      <c r="T28" s="11">
+        <v>9</v>
+      </c>
+      <c r="U28" s="11">
+        <v>53</v>
       </c>
       <c r="V28" s="11">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="W28" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X28" s="11">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="11">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="11">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="AA28" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AB28" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="AC28" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AD28" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AE28" s="11">
-        <v>98</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>79</v>
-      </c>
-      <c r="AG28" s="11">
         <v>36</v>
       </c>
-      <c r="AH28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>57</v>
+      <c r="AF28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>71</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>33</v>
       </c>
       <c r="AJ28" s="11">
+        <v>28</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>28</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>39</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>44</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>93</v>
+      </c>
+      <c r="AO28" s="11">
         <v>71</v>
       </c>
-      <c r="AK28" s="11">
-        <v>33</v>
-      </c>
-      <c r="AL28" s="11">
-        <v>28</v>
-      </c>
-      <c r="AM28" s="11">
-        <v>28</v>
-      </c>
-      <c r="AN28" s="11">
-        <v>39</v>
-      </c>
-      <c r="AO28" s="11">
-        <v>44</v>
-      </c>
       <c r="AP28" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AQ28" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AR28" s="11">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="AS28" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="AU28" s="11">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AV28" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AW28" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AX28" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="AY28" s="11">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="AZ28" s="11">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="BA28" s="11">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="BB28" s="11">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3651,56 +3651,56 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>658</v>
+        <v>1315</v>
       </c>
       <c r="F29" s="13">
-        <v>770</v>
+        <v>846</v>
       </c>
       <c r="G29" s="13">
-        <v>1315</v>
+        <v>972</v>
       </c>
       <c r="H29" s="13">
-        <v>846</v>
+        <v>293</v>
       </c>
       <c r="I29" s="13">
-        <v>972</v>
+        <v>1162</v>
       </c>
       <c r="J29" s="13">
-        <v>293</v>
+        <v>952</v>
       </c>
       <c r="K29" s="13">
-        <v>1162</v>
+        <v>1082</v>
       </c>
       <c r="L29" s="13">
-        <v>952</v>
+        <v>1457</v>
       </c>
       <c r="M29" s="13">
-        <v>1082</v>
+        <v>1579</v>
       </c>
       <c r="N29" s="13">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="O29" s="13">
-        <v>1579</v>
+        <v>1279</v>
       </c>
       <c r="P29" s="13">
-        <v>1508</v>
+        <v>1708</v>
       </c>
       <c r="Q29" s="13">
-        <v>1279</v>
+        <v>1474</v>
       </c>
       <c r="R29" s="13">
-        <v>1708</v>
+        <v>1451</v>
       </c>
       <c r="S29" s="13">
-        <v>1474</v>
-      </c>
-      <c r="T29" s="13">
-        <v>1451</v>
-      </c>
-      <c r="U29" s="13">
         <v>1733</v>
       </c>
+      <c r="T29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V29" s="13" t="s">
         <v>57</v>
       </c>
@@ -3737,42 +3737,42 @@
       <c r="AG29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI29" s="13" t="s">
-        <v>57</v>
+      <c r="AH29" s="13">
+        <v>453</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>652</v>
       </c>
       <c r="AJ29" s="13">
-        <v>453</v>
+        <v>810</v>
       </c>
       <c r="AK29" s="13">
-        <v>652</v>
+        <v>793</v>
       </c>
       <c r="AL29" s="13">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="AM29" s="13">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="AN29" s="13">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="AO29" s="13">
-        <v>762</v>
+        <v>583</v>
       </c>
       <c r="AP29" s="13">
-        <v>759</v>
+        <v>588</v>
       </c>
       <c r="AQ29" s="13">
-        <v>583</v>
-      </c>
-      <c r="AR29" s="13">
-        <v>588</v>
-      </c>
-      <c r="AS29" s="13">
         <v>36</v>
       </c>
+      <c r="AR29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT29" s="13" t="s">
         <v>57</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3810,20 +3810,20 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="G30" s="11">
-        <v>45</v>
-      </c>
-      <c r="H30" s="11">
-        <v>288</v>
-      </c>
-      <c r="I30" s="11">
         <v>457</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J30" s="11" t="s">
         <v>57</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
@@ -3977,48 +3977,48 @@
       <c r="G31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>57</v>
+      <c r="H31" s="13">
+        <v>21</v>
+      </c>
+      <c r="I31" s="13">
+        <v>116</v>
       </c>
       <c r="J31" s="13">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K31" s="13">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="L31" s="13">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M31" s="13">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N31" s="13">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="O31" s="13">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="P31" s="13">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="13">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="R31" s="13">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="S31" s="13">
-        <v>58</v>
-      </c>
-      <c r="T31" s="13">
-        <v>65</v>
-      </c>
-      <c r="U31" s="13">
         <v>90</v>
       </c>
+      <c r="T31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V31" s="13" t="s">
         <v>57</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4128,157 +4128,157 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="F32" s="11">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G32" s="11">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="H32" s="11">
+        <v>28</v>
+      </c>
+      <c r="I32" s="11">
+        <v>74</v>
+      </c>
+      <c r="J32" s="11">
+        <v>87</v>
+      </c>
+      <c r="K32" s="11">
+        <v>96</v>
+      </c>
+      <c r="L32" s="11">
         <v>92</v>
       </c>
-      <c r="I32" s="11">
-        <v>171</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="M32" s="11">
+        <v>85</v>
+      </c>
+      <c r="N32" s="11">
+        <v>95</v>
+      </c>
+      <c r="O32" s="11">
+        <v>98</v>
+      </c>
+      <c r="P32" s="11">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>81</v>
+      </c>
+      <c r="R32" s="11">
+        <v>85</v>
+      </c>
+      <c r="S32" s="11">
+        <v>107</v>
+      </c>
+      <c r="T32" s="11">
         <v>28</v>
       </c>
-      <c r="K32" s="11">
-        <v>74</v>
-      </c>
-      <c r="L32" s="11">
+      <c r="U32" s="11">
+        <v>130</v>
+      </c>
+      <c r="V32" s="11">
+        <v>100</v>
+      </c>
+      <c r="W32" s="11">
+        <v>107</v>
+      </c>
+      <c r="X32" s="11">
+        <v>80</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>95</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>105</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>130</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>159</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>133</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>79</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>147</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>128</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>111</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>117</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>107</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>90</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>100</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>38</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>63</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>71</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>67</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>81</v>
+      </c>
+      <c r="AW32" s="11">
+        <v>122</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>123</v>
+      </c>
+      <c r="AY32" s="11">
+        <v>80</v>
+      </c>
+      <c r="AZ32" s="11">
+        <v>63</v>
+      </c>
+      <c r="BA32" s="11">
         <v>87</v>
       </c>
-      <c r="M32" s="11">
-        <v>96</v>
-      </c>
-      <c r="N32" s="11">
-        <v>92</v>
-      </c>
-      <c r="O32" s="11">
-        <v>85</v>
-      </c>
-      <c r="P32" s="11">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>98</v>
-      </c>
-      <c r="R32" s="11">
-        <v>63</v>
-      </c>
-      <c r="S32" s="11">
-        <v>81</v>
-      </c>
-      <c r="T32" s="11">
-        <v>85</v>
-      </c>
-      <c r="U32" s="11">
-        <v>107</v>
-      </c>
-      <c r="V32" s="11">
-        <v>28</v>
-      </c>
-      <c r="W32" s="11">
-        <v>130</v>
-      </c>
-      <c r="X32" s="11">
-        <v>100</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>107</v>
-      </c>
-      <c r="Z32" s="11">
-        <v>80</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>95</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>105</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>130</v>
-      </c>
-      <c r="AD32" s="11">
-        <v>159</v>
-      </c>
-      <c r="AE32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>133</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>79</v>
-      </c>
-      <c r="AH32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ32" s="11">
-        <v>147</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>128</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>111</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>125</v>
-      </c>
-      <c r="AN32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>117</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AQ32" s="11">
+      <c r="BB32" s="11">
         <v>90</v>
       </c>
-      <c r="AR32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>38</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>63</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="11">
-        <v>71</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>67</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>81</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>122</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>123</v>
-      </c>
-      <c r="BA32" s="11">
-        <v>80</v>
-      </c>
-      <c r="BB32" s="11">
-        <v>63</v>
-      </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
@@ -4331,113 +4331,113 @@
       <c r="S33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>57</v>
+      <c r="T33" s="13">
+        <v>495</v>
+      </c>
+      <c r="U33" s="13">
+        <v>1618</v>
       </c>
       <c r="V33" s="13">
-        <v>495</v>
+        <v>999</v>
       </c>
       <c r="W33" s="13">
-        <v>1618</v>
+        <v>1152</v>
       </c>
       <c r="X33" s="13">
-        <v>999</v>
+        <v>1160</v>
       </c>
       <c r="Y33" s="13">
-        <v>1152</v>
+        <v>1208</v>
       </c>
       <c r="Z33" s="13">
-        <v>1160</v>
+        <v>904</v>
       </c>
       <c r="AA33" s="13">
-        <v>1208</v>
+        <v>850</v>
       </c>
       <c r="AB33" s="13">
-        <v>904</v>
+        <v>1219</v>
       </c>
       <c r="AC33" s="13">
-        <v>850</v>
+        <v>1233</v>
       </c>
       <c r="AD33" s="13">
-        <v>1219</v>
+        <v>1122</v>
       </c>
       <c r="AE33" s="13">
-        <v>1233</v>
+        <v>1516</v>
       </c>
       <c r="AF33" s="13">
-        <v>1122</v>
+        <v>512</v>
       </c>
       <c r="AG33" s="13">
-        <v>1516</v>
+        <v>1179</v>
       </c>
       <c r="AH33" s="13">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="AI33" s="13">
-        <v>1179</v>
+        <v>219</v>
       </c>
       <c r="AJ33" s="13">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AK33" s="13">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AL33" s="13">
+        <v>91</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>146</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>147</v>
+      </c>
+      <c r="AO33" s="13">
         <v>84</v>
       </c>
-      <c r="AM33" s="13">
-        <v>65</v>
-      </c>
-      <c r="AN33" s="13">
-        <v>91</v>
-      </c>
-      <c r="AO33" s="13">
-        <v>146</v>
-      </c>
       <c r="AP33" s="13">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AQ33" s="13">
-        <v>84</v>
+        <v>463</v>
       </c>
       <c r="AR33" s="13">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AS33" s="13">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="AT33" s="13">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="AU33" s="13">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="AV33" s="13">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="AW33" s="13">
-        <v>503</v>
+        <v>344</v>
       </c>
       <c r="AX33" s="13">
-        <v>633</v>
+        <v>465</v>
       </c>
       <c r="AY33" s="13">
-        <v>344</v>
+        <v>671</v>
       </c>
       <c r="AZ33" s="13">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="BA33" s="13">
-        <v>671</v>
+        <v>530</v>
       </c>
       <c r="BB33" s="13">
-        <v>412</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4583,14 +4583,14 @@
       <c r="AE35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>57</v>
+      <c r="AF35" s="11">
+        <v>0</v>
       </c>
       <c r="AG35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH35" s="11">
-        <v>0</v>
+      <c r="AH35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI35" s="11" t="s">
         <v>57</v>
@@ -4653,7 +4653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4715,11 +4715,11 @@
       <c r="V36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>57</v>
+      <c r="W36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
       </c>
       <c r="Y36" s="13">
         <v>0</v>
@@ -4742,11 +4742,11 @@
       <c r="AE36" s="13">
         <v>0</v>
       </c>
-      <c r="AF36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>0</v>
+      <c r="AF36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH36" s="13" t="s">
         <v>57</v>
@@ -4812,7 +4812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>64</v>
       </c>
@@ -4872,11 +4872,11 @@
       <c r="V37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>57</v>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
       </c>
       <c r="Y37" s="15">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>67</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="BA38" s="19"/>
       <c r="BB38" s="19"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>68</v>
       </c>
@@ -5086,11 +5086,11 @@
       <c r="V39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>57</v>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15">
+        <v>0</v>
       </c>
       <c r="Y39" s="15">
         <v>0</v>
@@ -5183,164 +5183,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17">
-        <v>874</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="17">
-        <v>1038</v>
+        <v>1226</v>
       </c>
       <c r="G40" s="17">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H40" s="17">
+        <v>342</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1352</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1121</v>
+      </c>
+      <c r="K40" s="17">
         <v>1226</v>
       </c>
-      <c r="I40" s="17">
-        <v>1600</v>
-      </c>
-      <c r="J40" s="17">
-        <v>342</v>
-      </c>
-      <c r="K40" s="17">
-        <v>1352</v>
-      </c>
       <c r="L40" s="17">
-        <v>1121</v>
+        <v>1590</v>
       </c>
       <c r="M40" s="17">
-        <v>1226</v>
+        <v>1755</v>
       </c>
       <c r="N40" s="17">
-        <v>1590</v>
+        <v>1732</v>
       </c>
       <c r="O40" s="17">
-        <v>1755</v>
+        <v>1510</v>
       </c>
       <c r="P40" s="17">
-        <v>1732</v>
+        <v>1852</v>
       </c>
       <c r="Q40" s="17">
-        <v>1510</v>
+        <v>1613</v>
       </c>
       <c r="R40" s="17">
-        <v>1852</v>
+        <v>1601</v>
       </c>
       <c r="S40" s="17">
-        <v>1613</v>
+        <v>1930</v>
       </c>
       <c r="T40" s="17">
-        <v>1601</v>
+        <v>532</v>
       </c>
       <c r="U40" s="17">
-        <v>1930</v>
+        <v>1801</v>
       </c>
       <c r="V40" s="17">
-        <v>532</v>
+        <v>1146</v>
       </c>
       <c r="W40" s="17">
-        <v>1801</v>
+        <v>1311</v>
       </c>
       <c r="X40" s="17">
-        <v>1146</v>
+        <v>1294</v>
       </c>
       <c r="Y40" s="17">
-        <v>1311</v>
+        <v>1371</v>
       </c>
       <c r="Z40" s="17">
-        <v>1294</v>
+        <v>1136</v>
       </c>
       <c r="AA40" s="17">
-        <v>1371</v>
+        <v>1072</v>
       </c>
       <c r="AB40" s="17">
-        <v>1136</v>
+        <v>1410</v>
       </c>
       <c r="AC40" s="17">
-        <v>1072</v>
+        <v>1439</v>
       </c>
       <c r="AD40" s="17">
-        <v>1410</v>
+        <v>1334</v>
       </c>
       <c r="AE40" s="17">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="AF40" s="17">
-        <v>1334</v>
+        <v>512</v>
       </c>
       <c r="AG40" s="17">
-        <v>1631</v>
+        <v>1179</v>
       </c>
       <c r="AH40" s="17">
-        <v>512</v>
+        <v>1055</v>
       </c>
       <c r="AI40" s="17">
-        <v>1179</v>
+        <v>1032</v>
       </c>
       <c r="AJ40" s="17">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="AK40" s="17">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="AL40" s="17">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="AM40" s="17">
-        <v>1011</v>
+        <v>1069</v>
       </c>
       <c r="AN40" s="17">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="AO40" s="17">
-        <v>1069</v>
+        <v>828</v>
       </c>
       <c r="AP40" s="17">
-        <v>1106</v>
+        <v>864</v>
       </c>
       <c r="AQ40" s="17">
-        <v>828</v>
+        <v>571</v>
       </c>
       <c r="AR40" s="17">
-        <v>864</v>
+        <v>436</v>
       </c>
       <c r="AS40" s="17">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="AT40" s="17">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AU40" s="17">
-        <v>32</v>
+        <v>648</v>
       </c>
       <c r="AV40" s="17">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="AW40" s="17">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="AX40" s="17">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="AY40" s="17">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="AZ40" s="17">
-        <v>705</v>
+        <v>555</v>
       </c>
       <c r="BA40" s="17">
-        <v>888</v>
+        <v>782</v>
       </c>
       <c r="BB40" s="17">
-        <v>555</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5395,7 +5395,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5450,7 +5450,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5505,7 +5505,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>69</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5717,7 +5717,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5827,113 +5827,113 @@
       <c r="S47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U47" s="11" t="s">
-        <v>57</v>
+      <c r="T47" s="11">
+        <v>2720</v>
+      </c>
+      <c r="U47" s="11">
+        <v>12971</v>
       </c>
       <c r="V47" s="11">
-        <v>2720</v>
+        <v>12129</v>
       </c>
       <c r="W47" s="11">
-        <v>12971</v>
+        <v>12962</v>
       </c>
       <c r="X47" s="11">
-        <v>12129</v>
+        <v>11838</v>
       </c>
       <c r="Y47" s="11">
-        <v>12962</v>
+        <v>15040</v>
       </c>
       <c r="Z47" s="11">
-        <v>11838</v>
+        <v>28208</v>
       </c>
       <c r="AA47" s="11">
-        <v>15040</v>
+        <v>24364</v>
       </c>
       <c r="AB47" s="11">
-        <v>28208</v>
+        <v>9319</v>
       </c>
       <c r="AC47" s="11">
-        <v>24364</v>
+        <v>25128</v>
       </c>
       <c r="AD47" s="11">
-        <v>9319</v>
+        <v>20524</v>
       </c>
       <c r="AE47" s="11">
-        <v>25128</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>20524</v>
-      </c>
-      <c r="AG47" s="11">
         <v>8653</v>
       </c>
-      <c r="AH47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI47" s="11" t="s">
-        <v>57</v>
+      <c r="AF47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>21324</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>9826</v>
       </c>
       <c r="AJ47" s="11">
-        <v>21324</v>
+        <v>8550</v>
       </c>
       <c r="AK47" s="11">
-        <v>9826</v>
+        <v>8991</v>
       </c>
       <c r="AL47" s="11">
-        <v>8550</v>
+        <v>12874</v>
       </c>
       <c r="AM47" s="11">
-        <v>8991</v>
+        <v>17112</v>
       </c>
       <c r="AN47" s="11">
-        <v>12874</v>
+        <v>36680</v>
       </c>
       <c r="AO47" s="11">
-        <v>17112</v>
+        <v>29292</v>
       </c>
       <c r="AP47" s="11">
-        <v>36680</v>
+        <v>49120</v>
       </c>
       <c r="AQ47" s="11">
-        <v>29292</v>
+        <v>14380</v>
       </c>
       <c r="AR47" s="11">
-        <v>49120</v>
+        <v>9472</v>
       </c>
       <c r="AS47" s="11">
-        <v>14380</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>9472</v>
+        <v>72135</v>
       </c>
       <c r="AU47" s="11">
-        <v>0</v>
+        <v>54672</v>
       </c>
       <c r="AV47" s="11">
-        <v>72135</v>
+        <v>23415</v>
       </c>
       <c r="AW47" s="11">
-        <v>54672</v>
+        <v>51313</v>
       </c>
       <c r="AX47" s="11">
-        <v>23415</v>
+        <v>95458</v>
       </c>
       <c r="AY47" s="11">
-        <v>51313</v>
+        <v>111553</v>
       </c>
       <c r="AZ47" s="11">
-        <v>95458</v>
+        <v>65064</v>
       </c>
       <c r="BA47" s="11">
-        <v>111553</v>
+        <v>98756</v>
       </c>
       <c r="BB47" s="11">
-        <v>65064</v>
+        <v>44863</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>58</v>
       </c>
@@ -5942,56 +5942,56 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>61112</v>
+        <v>146395</v>
       </c>
       <c r="F48" s="13">
-        <v>75143</v>
+        <v>92732</v>
       </c>
       <c r="G48" s="13">
-        <v>146395</v>
+        <v>84147</v>
       </c>
       <c r="H48" s="13">
-        <v>92732</v>
+        <v>30548</v>
       </c>
       <c r="I48" s="13">
-        <v>84147</v>
+        <v>141117</v>
       </c>
       <c r="J48" s="13">
-        <v>30548</v>
+        <v>119026</v>
       </c>
       <c r="K48" s="13">
-        <v>141117</v>
+        <v>136993</v>
       </c>
       <c r="L48" s="13">
-        <v>119026</v>
+        <v>194840</v>
       </c>
       <c r="M48" s="13">
-        <v>136993</v>
+        <v>231446</v>
       </c>
       <c r="N48" s="13">
-        <v>194840</v>
+        <v>214206</v>
       </c>
       <c r="O48" s="13">
-        <v>231446</v>
+        <v>188484</v>
       </c>
       <c r="P48" s="13">
-        <v>214206</v>
+        <v>235182</v>
       </c>
       <c r="Q48" s="13">
-        <v>188484</v>
+        <v>215829</v>
       </c>
       <c r="R48" s="13">
-        <v>235182</v>
+        <v>193702</v>
       </c>
       <c r="S48" s="13">
-        <v>215829</v>
-      </c>
-      <c r="T48" s="13">
-        <v>193702</v>
-      </c>
-      <c r="U48" s="13">
         <v>210115</v>
       </c>
+      <c r="T48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6028,42 +6028,42 @@
       <c r="AG48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI48" s="13" t="s">
-        <v>57</v>
+      <c r="AH48" s="13">
+        <v>120878</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>179709</v>
       </c>
       <c r="AJ48" s="13">
-        <v>120878</v>
+        <v>225789</v>
       </c>
       <c r="AK48" s="13">
-        <v>179709</v>
+        <v>231341</v>
       </c>
       <c r="AL48" s="13">
-        <v>225789</v>
+        <v>256539</v>
       </c>
       <c r="AM48" s="13">
-        <v>231341</v>
+        <v>260537</v>
       </c>
       <c r="AN48" s="13">
-        <v>256539</v>
+        <v>260136</v>
       </c>
       <c r="AO48" s="13">
-        <v>260537</v>
+        <v>214732</v>
       </c>
       <c r="AP48" s="13">
-        <v>260136</v>
+        <v>217920</v>
       </c>
       <c r="AQ48" s="13">
-        <v>214732</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>-386734</v>
-      </c>
-      <c r="AS48" s="13">
         <v>13296</v>
       </c>
+      <c r="AR48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>59</v>
       </c>
@@ -6101,20 +6101,20 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>13447</v>
+        <v>6531</v>
       </c>
       <c r="F49" s="11">
-        <v>20775</v>
+        <v>41826</v>
       </c>
       <c r="G49" s="11">
-        <v>6531</v>
-      </c>
-      <c r="H49" s="11">
-        <v>41826</v>
-      </c>
-      <c r="I49" s="11">
         <v>84711</v>
       </c>
+      <c r="H49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J49" s="11" t="s">
         <v>57</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>60</v>
       </c>
@@ -6268,48 +6268,48 @@
       <c r="G50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>57</v>
+      <c r="H50" s="13">
+        <v>4684</v>
+      </c>
+      <c r="I50" s="13">
+        <v>19969</v>
       </c>
       <c r="J50" s="13">
-        <v>4684</v>
+        <v>15714</v>
       </c>
       <c r="K50" s="13">
-        <v>19969</v>
+        <v>11082</v>
       </c>
       <c r="L50" s="13">
-        <v>15714</v>
+        <v>10007</v>
       </c>
       <c r="M50" s="13">
-        <v>11082</v>
+        <v>8178</v>
       </c>
       <c r="N50" s="13">
-        <v>10007</v>
+        <v>22614</v>
       </c>
       <c r="O50" s="13">
-        <v>8178</v>
+        <v>23362</v>
       </c>
       <c r="P50" s="13">
-        <v>22614</v>
+        <v>14055</v>
       </c>
       <c r="Q50" s="13">
-        <v>23362</v>
+        <v>10070</v>
       </c>
       <c r="R50" s="13">
-        <v>14055</v>
+        <v>13248</v>
       </c>
       <c r="S50" s="13">
-        <v>10070</v>
-      </c>
-      <c r="T50" s="13">
-        <v>13248</v>
-      </c>
-      <c r="U50" s="13">
         <v>26162</v>
       </c>
+      <c r="T50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V50" s="13" t="s">
         <v>57</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>61</v>
       </c>
@@ -6419,157 +6419,157 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>11989</v>
+        <v>18877</v>
       </c>
       <c r="F51" s="11">
-        <v>12543</v>
+        <v>12377</v>
       </c>
       <c r="G51" s="11">
-        <v>18877</v>
+        <v>19377</v>
       </c>
       <c r="H51" s="11">
-        <v>12377</v>
+        <v>3847</v>
       </c>
       <c r="I51" s="11">
-        <v>19377</v>
+        <v>10812</v>
       </c>
       <c r="J51" s="11">
-        <v>3847</v>
+        <v>13186</v>
       </c>
       <c r="K51" s="11">
-        <v>10812</v>
+        <v>16921</v>
       </c>
       <c r="L51" s="11">
-        <v>13186</v>
+        <v>17204</v>
       </c>
       <c r="M51" s="11">
-        <v>16921</v>
+        <v>5671</v>
       </c>
       <c r="N51" s="11">
-        <v>17204</v>
+        <v>14270</v>
       </c>
       <c r="O51" s="11">
-        <v>5671</v>
+        <v>14960</v>
       </c>
       <c r="P51" s="11">
-        <v>14270</v>
+        <v>9438</v>
       </c>
       <c r="Q51" s="11">
-        <v>14960</v>
+        <v>12066</v>
       </c>
       <c r="R51" s="11">
-        <v>9438</v>
+        <v>12873</v>
       </c>
       <c r="S51" s="11">
-        <v>12066</v>
+        <v>13422</v>
       </c>
       <c r="T51" s="11">
-        <v>12873</v>
+        <v>4115</v>
       </c>
       <c r="U51" s="11">
-        <v>13422</v>
+        <v>22765</v>
       </c>
       <c r="V51" s="11">
-        <v>4115</v>
+        <v>19348</v>
       </c>
       <c r="W51" s="11">
-        <v>22765</v>
+        <v>21066</v>
       </c>
       <c r="X51" s="11">
-        <v>19348</v>
+        <v>14361</v>
       </c>
       <c r="Y51" s="11">
-        <v>21066</v>
+        <v>17495</v>
       </c>
       <c r="Z51" s="11">
-        <v>14361</v>
+        <v>18401</v>
       </c>
       <c r="AA51" s="11">
-        <v>17495</v>
+        <v>30175</v>
       </c>
       <c r="AB51" s="11">
-        <v>18401</v>
+        <v>41672</v>
       </c>
       <c r="AC51" s="11">
-        <v>30175</v>
+        <v>25032</v>
       </c>
       <c r="AD51" s="11">
-        <v>41672</v>
+        <v>31354</v>
       </c>
       <c r="AE51" s="11">
-        <v>25032</v>
-      </c>
-      <c r="AF51" s="11">
-        <v>31354</v>
-      </c>
-      <c r="AG51" s="11">
         <v>16112</v>
       </c>
-      <c r="AH51" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI51" s="11" t="s">
-        <v>57</v>
+      <c r="AF51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>43623</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>37717</v>
       </c>
       <c r="AJ51" s="11">
-        <v>43623</v>
+        <v>32439</v>
       </c>
       <c r="AK51" s="11">
-        <v>37717</v>
+        <v>39780</v>
       </c>
       <c r="AL51" s="11">
-        <v>32439</v>
+        <v>34651</v>
       </c>
       <c r="AM51" s="11">
-        <v>39780</v>
+        <v>44073</v>
       </c>
       <c r="AN51" s="11">
-        <v>34651</v>
+        <v>40422</v>
       </c>
       <c r="AO51" s="11">
-        <v>44073</v>
+        <v>35453</v>
       </c>
       <c r="AP51" s="11">
-        <v>40422</v>
+        <v>39981</v>
       </c>
       <c r="AQ51" s="11">
-        <v>35453</v>
+        <v>14970</v>
       </c>
       <c r="AR51" s="11">
-        <v>39981</v>
+        <v>28187</v>
       </c>
       <c r="AS51" s="11">
-        <v>14970</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="11">
-        <v>28187</v>
+        <v>45111</v>
       </c>
       <c r="AU51" s="11">
-        <v>0</v>
+        <v>56564</v>
       </c>
       <c r="AV51" s="11">
-        <v>45111</v>
+        <v>70231</v>
       </c>
       <c r="AW51" s="11">
-        <v>56564</v>
+        <v>105959</v>
       </c>
       <c r="AX51" s="11">
-        <v>70231</v>
+        <v>92588</v>
       </c>
       <c r="AY51" s="11">
-        <v>105959</v>
+        <v>60091</v>
       </c>
       <c r="AZ51" s="11">
-        <v>92588</v>
+        <v>47482</v>
       </c>
       <c r="BA51" s="11">
-        <v>60091</v>
+        <v>48158</v>
       </c>
       <c r="BB51" s="11">
-        <v>47482</v>
+        <v>38893</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>62</v>
       </c>
@@ -6622,113 +6622,113 @@
       <c r="S52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>57</v>
+      <c r="T52" s="13">
+        <v>56874</v>
+      </c>
+      <c r="U52" s="13">
+        <v>252230</v>
       </c>
       <c r="V52" s="13">
-        <v>56874</v>
+        <v>162121</v>
       </c>
       <c r="W52" s="13">
-        <v>252230</v>
+        <v>189578</v>
       </c>
       <c r="X52" s="13">
-        <v>162121</v>
+        <v>178170</v>
       </c>
       <c r="Y52" s="13">
-        <v>189578</v>
+        <v>215376</v>
       </c>
       <c r="Z52" s="13">
-        <v>178170</v>
+        <v>146445</v>
       </c>
       <c r="AA52" s="13">
-        <v>215376</v>
+        <v>178635</v>
       </c>
       <c r="AB52" s="13">
-        <v>146445</v>
+        <v>288123</v>
       </c>
       <c r="AC52" s="13">
-        <v>178635</v>
+        <v>287747</v>
       </c>
       <c r="AD52" s="13">
-        <v>288123</v>
+        <v>266099</v>
       </c>
       <c r="AE52" s="13">
-        <v>287747</v>
+        <v>227488</v>
       </c>
       <c r="AF52" s="13">
-        <v>266099</v>
+        <v>123899</v>
       </c>
       <c r="AG52" s="13">
-        <v>227488</v>
+        <v>289154</v>
       </c>
       <c r="AH52" s="13">
-        <v>123899</v>
+        <v>89329</v>
       </c>
       <c r="AI52" s="13">
-        <v>289154</v>
+        <v>44996</v>
       </c>
       <c r="AJ52" s="13">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AK52" s="13">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AL52" s="13">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AM52" s="13">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AN52" s="13">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AO52" s="13">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AP52" s="13">
-        <v>32455</v>
+        <v>13524</v>
       </c>
       <c r="AQ52" s="13">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AR52" s="13">
-        <v>24106</v>
+        <v>132140</v>
       </c>
       <c r="AS52" s="13">
-        <v>117604</v>
+        <v>10103</v>
       </c>
       <c r="AT52" s="13">
-        <v>132140</v>
+        <v>162902</v>
       </c>
       <c r="AU52" s="13">
-        <v>10103</v>
+        <v>327393</v>
       </c>
       <c r="AV52" s="13">
-        <v>162902</v>
+        <v>456837</v>
       </c>
       <c r="AW52" s="13">
-        <v>327393</v>
+        <v>172656</v>
       </c>
       <c r="AX52" s="13">
-        <v>456837</v>
+        <v>262000</v>
       </c>
       <c r="AY52" s="13">
-        <v>172656</v>
+        <v>358570</v>
       </c>
       <c r="AZ52" s="13">
-        <v>262000</v>
+        <v>187929</v>
       </c>
       <c r="BA52" s="13">
-        <v>358570</v>
+        <v>253301</v>
       </c>
       <c r="BB52" s="13">
-        <v>187929</v>
+        <v>197965</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>71</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>55</v>
       </c>
@@ -6874,11 +6874,11 @@
       <c r="AE54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG54" s="11" t="s">
-        <v>57</v>
+      <c r="AF54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="11">
+        <v>0</v>
       </c>
       <c r="AH54" s="11">
         <v>0</v>
@@ -6892,11 +6892,11 @@
       <c r="AK54" s="11">
         <v>0</v>
       </c>
-      <c r="AL54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="11">
-        <v>0</v>
+      <c r="AL54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN54" s="11" t="s">
         <v>57</v>
@@ -6944,7 +6944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>62</v>
       </c>
@@ -7006,11 +7006,11 @@
       <c r="V55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X55" s="13" t="s">
-        <v>57</v>
+      <c r="W55" s="13">
+        <v>0</v>
+      </c>
+      <c r="X55" s="13">
+        <v>0</v>
       </c>
       <c r="Y55" s="13">
         <v>0</v>
@@ -7033,11 +7033,11 @@
       <c r="AE55" s="13">
         <v>0</v>
       </c>
-      <c r="AF55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="13">
-        <v>0</v>
+      <c r="AF55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH55" s="13" t="s">
         <v>57</v>
@@ -7103,7 +7103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>64</v>
       </c>
@@ -7165,11 +7165,11 @@
       <c r="V56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>57</v>
+      <c r="W56" s="15">
+        <v>0</v>
+      </c>
+      <c r="X56" s="15">
+        <v>0</v>
       </c>
       <c r="Y56" s="15">
         <v>0</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>72</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="BA57" s="19"/>
       <c r="BB57" s="19"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>68</v>
       </c>
@@ -7381,11 +7381,11 @@
       <c r="V58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>57</v>
+      <c r="W58" s="15">
+        <v>0</v>
+      </c>
+      <c r="X58" s="15">
+        <v>0</v>
       </c>
       <c r="Y58" s="15">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>73</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>74</v>
       </c>
@@ -7597,11 +7597,11 @@
       <c r="V60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>57</v>
+      <c r="W60" s="11">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11">
+        <v>0</v>
       </c>
       <c r="Y60" s="11">
         <v>0</v>
@@ -7694,164 +7694,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17">
-        <v>86548</v>
+        <v>171803</v>
       </c>
       <c r="F61" s="17">
-        <v>108461</v>
+        <v>146935</v>
       </c>
       <c r="G61" s="17">
-        <v>171803</v>
+        <v>188235</v>
       </c>
       <c r="H61" s="17">
-        <v>146935</v>
+        <v>39079</v>
       </c>
       <c r="I61" s="17">
-        <v>188235</v>
+        <v>171898</v>
       </c>
       <c r="J61" s="17">
-        <v>39079</v>
+        <v>147926</v>
       </c>
       <c r="K61" s="17">
-        <v>171898</v>
+        <v>164996</v>
       </c>
       <c r="L61" s="17">
-        <v>147926</v>
+        <v>222051</v>
       </c>
       <c r="M61" s="17">
-        <v>164996</v>
+        <v>245295</v>
       </c>
       <c r="N61" s="17">
-        <v>222051</v>
+        <v>251090</v>
       </c>
       <c r="O61" s="17">
-        <v>245295</v>
+        <v>226806</v>
       </c>
       <c r="P61" s="17">
-        <v>251090</v>
+        <v>258675</v>
       </c>
       <c r="Q61" s="17">
-        <v>226806</v>
+        <v>237965</v>
       </c>
       <c r="R61" s="17">
-        <v>258675</v>
+        <v>219823</v>
       </c>
       <c r="S61" s="17">
-        <v>237965</v>
+        <v>249699</v>
       </c>
       <c r="T61" s="17">
-        <v>219823</v>
+        <v>63709</v>
       </c>
       <c r="U61" s="17">
-        <v>249699</v>
+        <v>287966</v>
       </c>
       <c r="V61" s="17">
-        <v>63709</v>
+        <v>193598</v>
       </c>
       <c r="W61" s="17">
-        <v>287966</v>
+        <v>223606</v>
       </c>
       <c r="X61" s="17">
-        <v>193598</v>
+        <v>204369</v>
       </c>
       <c r="Y61" s="17">
-        <v>223606</v>
+        <v>247911</v>
       </c>
       <c r="Z61" s="17">
-        <v>204369</v>
+        <v>193054</v>
       </c>
       <c r="AA61" s="17">
-        <v>247911</v>
+        <v>233174</v>
       </c>
       <c r="AB61" s="17">
-        <v>193054</v>
+        <v>339114</v>
       </c>
       <c r="AC61" s="17">
-        <v>233174</v>
+        <v>337907</v>
       </c>
       <c r="AD61" s="17">
-        <v>339114</v>
+        <v>317977</v>
       </c>
       <c r="AE61" s="17">
-        <v>337907</v>
+        <v>252253</v>
       </c>
       <c r="AF61" s="17">
-        <v>317977</v>
+        <v>123899</v>
       </c>
       <c r="AG61" s="17">
-        <v>252253</v>
+        <v>289154</v>
       </c>
       <c r="AH61" s="17">
-        <v>123899</v>
+        <v>275154</v>
       </c>
       <c r="AI61" s="17">
-        <v>289154</v>
+        <v>272248</v>
       </c>
       <c r="AJ61" s="17">
-        <v>275154</v>
+        <v>283898</v>
       </c>
       <c r="AK61" s="17">
-        <v>272248</v>
+        <v>293463</v>
       </c>
       <c r="AL61" s="17">
-        <v>283898</v>
+        <v>322949</v>
       </c>
       <c r="AM61" s="17">
-        <v>293463</v>
+        <v>355230</v>
       </c>
       <c r="AN61" s="17">
-        <v>322949</v>
+        <v>369693</v>
       </c>
       <c r="AO61" s="17">
-        <v>355230</v>
+        <v>298594</v>
       </c>
       <c r="AP61" s="17">
-        <v>369693</v>
+        <v>320545</v>
       </c>
       <c r="AQ61" s="17">
-        <v>298594</v>
+        <v>160250</v>
       </c>
       <c r="AR61" s="17">
-        <v>-273527</v>
+        <v>169799</v>
       </c>
       <c r="AS61" s="17">
-        <v>160250</v>
+        <v>10103</v>
       </c>
       <c r="AT61" s="17">
-        <v>169799</v>
+        <v>280148</v>
       </c>
       <c r="AU61" s="17">
-        <v>10103</v>
+        <v>438629</v>
       </c>
       <c r="AV61" s="17">
-        <v>280148</v>
+        <v>550483</v>
       </c>
       <c r="AW61" s="17">
-        <v>438629</v>
+        <v>329928</v>
       </c>
       <c r="AX61" s="17">
-        <v>550483</v>
+        <v>450046</v>
       </c>
       <c r="AY61" s="17">
-        <v>329928</v>
+        <v>530214</v>
       </c>
       <c r="AZ61" s="17">
-        <v>450046</v>
+        <v>300475</v>
       </c>
       <c r="BA61" s="17">
-        <v>530214</v>
+        <v>400215</v>
       </c>
       <c r="BB61" s="17">
-        <v>300475</v>
+        <v>281721</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7906,7 +7906,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7961,7 +7961,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8016,7 +8016,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>75</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8228,7 +8228,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>76</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
@@ -8338,113 +8338,113 @@
       <c r="S68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U68" s="11" t="s">
-        <v>57</v>
+      <c r="T68" s="11">
+        <v>302222222</v>
+      </c>
+      <c r="U68" s="11">
+        <v>244735849</v>
       </c>
       <c r="V68" s="11">
-        <v>302222222</v>
+        <v>258063830</v>
       </c>
       <c r="W68" s="11">
-        <v>244735849</v>
+        <v>249269231</v>
       </c>
       <c r="X68" s="11">
-        <v>258063830</v>
+        <v>219222222</v>
       </c>
       <c r="Y68" s="11">
-        <v>249269231</v>
+        <v>221176471</v>
       </c>
       <c r="Z68" s="11">
-        <v>219222222</v>
+        <v>222110236</v>
       </c>
       <c r="AA68" s="11">
-        <v>221176471</v>
+        <v>264826087</v>
       </c>
       <c r="AB68" s="11">
-        <v>222110236</v>
+        <v>291218750</v>
       </c>
       <c r="AC68" s="11">
-        <v>264826087</v>
+        <v>256411020</v>
       </c>
       <c r="AD68" s="11">
-        <v>291218750</v>
+        <v>259797468</v>
       </c>
       <c r="AE68" s="11">
-        <v>256411020</v>
-      </c>
-      <c r="AF68" s="11">
-        <v>259797468</v>
-      </c>
-      <c r="AG68" s="11">
         <v>240361111</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI68" s="11" t="s">
-        <v>57</v>
+      <c r="AF68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH68" s="11">
+        <v>300338028</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>297757576</v>
       </c>
       <c r="AJ68" s="11">
-        <v>300338028</v>
+        <v>305357143</v>
       </c>
       <c r="AK68" s="11">
-        <v>297757576</v>
+        <v>321107143</v>
       </c>
       <c r="AL68" s="11">
-        <v>305357143</v>
+        <v>330102564</v>
       </c>
       <c r="AM68" s="11">
-        <v>321107143</v>
+        <v>388909091</v>
       </c>
       <c r="AN68" s="11">
-        <v>330102564</v>
+        <v>394408602</v>
       </c>
       <c r="AO68" s="11">
-        <v>388909091</v>
+        <v>412563380</v>
       </c>
       <c r="AP68" s="11">
-        <v>394408602</v>
+        <v>423448276</v>
       </c>
       <c r="AQ68" s="11">
-        <v>412563380</v>
+        <v>422941176</v>
       </c>
       <c r="AR68" s="11">
-        <v>423448276</v>
-      </c>
-      <c r="AS68" s="11">
-        <v>422941176</v>
+        <v>728615385</v>
+      </c>
+      <c r="AS68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT68" s="11">
-        <v>728615385</v>
-      </c>
-      <c r="AU68" s="11" t="s">
-        <v>57</v>
+        <v>936818182</v>
+      </c>
+      <c r="AU68" s="11">
+        <v>700923077</v>
       </c>
       <c r="AV68" s="11">
-        <v>936818182</v>
+        <v>780500000</v>
       </c>
       <c r="AW68" s="11">
-        <v>700923077</v>
+        <v>900228070</v>
       </c>
       <c r="AX68" s="11">
-        <v>780500000</v>
+        <v>815880342</v>
       </c>
       <c r="AY68" s="11">
-        <v>900228070</v>
+        <v>814255474</v>
       </c>
       <c r="AZ68" s="11">
-        <v>815880342</v>
+        <v>813300000</v>
       </c>
       <c r="BA68" s="11">
-        <v>814255474</v>
+        <v>598521212</v>
       </c>
       <c r="BB68" s="11">
-        <v>813300000</v>
+        <v>431375000</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>58</v>
       </c>
@@ -8453,56 +8453,56 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>92875380</v>
+        <v>111326996</v>
       </c>
       <c r="F69" s="13">
-        <v>97588312</v>
+        <v>109612293</v>
       </c>
       <c r="G69" s="13">
-        <v>111326996</v>
+        <v>86570988</v>
       </c>
       <c r="H69" s="13">
-        <v>109612293</v>
+        <v>104259386</v>
       </c>
       <c r="I69" s="13">
-        <v>86570988</v>
+        <v>121443201</v>
       </c>
       <c r="J69" s="13">
-        <v>104259386</v>
+        <v>125027311</v>
       </c>
       <c r="K69" s="13">
-        <v>121443201</v>
+        <v>126610906</v>
       </c>
       <c r="L69" s="13">
-        <v>125027311</v>
+        <v>133726836</v>
       </c>
       <c r="M69" s="13">
-        <v>126610906</v>
+        <v>146577581</v>
       </c>
       <c r="N69" s="13">
-        <v>133726836</v>
+        <v>142046419</v>
       </c>
       <c r="O69" s="13">
-        <v>146577581</v>
+        <v>147368256</v>
       </c>
       <c r="P69" s="13">
-        <v>142046419</v>
+        <v>137694379</v>
       </c>
       <c r="Q69" s="13">
-        <v>147368256</v>
+        <v>146424016</v>
       </c>
       <c r="R69" s="13">
-        <v>137694379</v>
+        <v>133495520</v>
       </c>
       <c r="S69" s="13">
-        <v>146424016</v>
-      </c>
-      <c r="T69" s="13">
-        <v>133495520</v>
-      </c>
-      <c r="U69" s="13">
         <v>121243508</v>
       </c>
+      <c r="T69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U69" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V69" s="13" t="s">
         <v>57</v>
       </c>
@@ -8539,42 +8539,42 @@
       <c r="AG69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI69" s="13" t="s">
-        <v>57</v>
+      <c r="AH69" s="13">
+        <v>266838852</v>
+      </c>
+      <c r="AI69" s="13">
+        <v>275627301</v>
       </c>
       <c r="AJ69" s="13">
-        <v>266838852</v>
+        <v>278751852</v>
       </c>
       <c r="AK69" s="13">
-        <v>275627301</v>
+        <v>291728878</v>
       </c>
       <c r="AL69" s="13">
-        <v>278751852</v>
+        <v>309455971</v>
       </c>
       <c r="AM69" s="13">
-        <v>291728878</v>
+        <v>341912073</v>
       </c>
       <c r="AN69" s="13">
-        <v>309455971</v>
+        <v>342735178</v>
       </c>
       <c r="AO69" s="13">
-        <v>341912073</v>
+        <v>368322470</v>
       </c>
       <c r="AP69" s="13">
-        <v>342735178</v>
+        <v>370612245</v>
       </c>
       <c r="AQ69" s="13">
-        <v>368322470</v>
-      </c>
-      <c r="AR69" s="13">
-        <v>289948691</v>
-      </c>
-      <c r="AS69" s="13">
         <v>369333333</v>
       </c>
+      <c r="AR69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS69" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT69" s="13" t="s">
         <v>57</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>59</v>
       </c>
@@ -8612,20 +8612,20 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>122245455</v>
+        <v>145133333</v>
       </c>
       <c r="F70" s="11">
-        <v>128240741</v>
+        <v>145229167</v>
       </c>
       <c r="G70" s="11">
-        <v>145133333</v>
-      </c>
-      <c r="H70" s="11">
-        <v>145229167</v>
-      </c>
-      <c r="I70" s="11">
         <v>185363239</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J70" s="11" t="s">
         <v>57</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>60</v>
       </c>
@@ -8779,48 +8779,48 @@
       <c r="G71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>57</v>
+      <c r="H71" s="13">
+        <v>223047619</v>
+      </c>
+      <c r="I71" s="13">
+        <v>172146552</v>
       </c>
       <c r="J71" s="13">
-        <v>223047619</v>
+        <v>191634146</v>
       </c>
       <c r="K71" s="13">
-        <v>172146552</v>
+        <v>230875000</v>
       </c>
       <c r="L71" s="13">
-        <v>191634146</v>
+        <v>244073171</v>
       </c>
       <c r="M71" s="13">
-        <v>230875000</v>
+        <v>89868132</v>
       </c>
       <c r="N71" s="13">
-        <v>244073171</v>
+        <v>175302326</v>
       </c>
       <c r="O71" s="13">
-        <v>89868132</v>
+        <v>175654135</v>
       </c>
       <c r="P71" s="13">
-        <v>175302326</v>
+        <v>173518519</v>
       </c>
       <c r="Q71" s="13">
-        <v>175654135</v>
+        <v>173620690</v>
       </c>
       <c r="R71" s="13">
-        <v>173518519</v>
+        <v>203815385</v>
       </c>
       <c r="S71" s="13">
-        <v>173620690</v>
-      </c>
-      <c r="T71" s="13">
-        <v>203815385</v>
-      </c>
-      <c r="U71" s="13">
         <v>290688889</v>
       </c>
+      <c r="T71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U71" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V71" s="13" t="s">
         <v>57</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
@@ -8930,157 +8930,157 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>113103774</v>
+        <v>134835714</v>
       </c>
       <c r="F72" s="11">
-        <v>118330189</v>
+        <v>134532609</v>
       </c>
       <c r="G72" s="11">
-        <v>134835714</v>
+        <v>113315789</v>
       </c>
       <c r="H72" s="11">
-        <v>134532609</v>
+        <v>137392857</v>
       </c>
       <c r="I72" s="11">
-        <v>113315789</v>
+        <v>146108108</v>
       </c>
       <c r="J72" s="11">
-        <v>137392857</v>
+        <v>151563218</v>
       </c>
       <c r="K72" s="11">
-        <v>146108108</v>
+        <v>176260417</v>
       </c>
       <c r="L72" s="11">
-        <v>151563218</v>
+        <v>187000000</v>
       </c>
       <c r="M72" s="11">
-        <v>176260417</v>
+        <v>66717647</v>
       </c>
       <c r="N72" s="11">
-        <v>187000000</v>
+        <v>150210526</v>
       </c>
       <c r="O72" s="11">
-        <v>66717647</v>
+        <v>152653061</v>
       </c>
       <c r="P72" s="11">
-        <v>150210526</v>
+        <v>149809524</v>
       </c>
       <c r="Q72" s="11">
-        <v>152653061</v>
+        <v>148962963</v>
       </c>
       <c r="R72" s="11">
-        <v>149809524</v>
+        <v>151447059</v>
       </c>
       <c r="S72" s="11">
-        <v>148962963</v>
+        <v>125439252</v>
       </c>
       <c r="T72" s="11">
-        <v>151447059</v>
+        <v>146964286</v>
       </c>
       <c r="U72" s="11">
-        <v>125439252</v>
+        <v>175115385</v>
       </c>
       <c r="V72" s="11">
-        <v>146964286</v>
+        <v>193480000</v>
       </c>
       <c r="W72" s="11">
-        <v>175115385</v>
+        <v>196878505</v>
       </c>
       <c r="X72" s="11">
-        <v>193480000</v>
+        <v>179512500</v>
       </c>
       <c r="Y72" s="11">
-        <v>196878505</v>
+        <v>184157895</v>
       </c>
       <c r="Z72" s="11">
-        <v>179512500</v>
+        <v>175247619</v>
       </c>
       <c r="AA72" s="11">
-        <v>184157895</v>
+        <v>232115385</v>
       </c>
       <c r="AB72" s="11">
-        <v>175247619</v>
+        <v>262088050</v>
       </c>
       <c r="AC72" s="11">
-        <v>232115385</v>
+        <v>231779352</v>
       </c>
       <c r="AD72" s="11">
-        <v>262088050</v>
+        <v>235744361</v>
       </c>
       <c r="AE72" s="11">
-        <v>231779352</v>
-      </c>
-      <c r="AF72" s="11">
-        <v>235744361</v>
-      </c>
-      <c r="AG72" s="11">
         <v>203949367</v>
       </c>
-      <c r="AH72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI72" s="11" t="s">
-        <v>57</v>
+      <c r="AF72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH72" s="11">
+        <v>296755102</v>
+      </c>
+      <c r="AI72" s="11">
+        <v>294664063</v>
       </c>
       <c r="AJ72" s="11">
-        <v>296755102</v>
+        <v>292243243</v>
       </c>
       <c r="AK72" s="11">
-        <v>294664063</v>
+        <v>318240000</v>
       </c>
       <c r="AL72" s="11">
-        <v>292243243</v>
+        <v>320842593</v>
       </c>
       <c r="AM72" s="11">
-        <v>318240000</v>
+        <v>376692308</v>
       </c>
       <c r="AN72" s="11">
-        <v>320842593</v>
+        <v>377775701</v>
       </c>
       <c r="AO72" s="11">
-        <v>376692308</v>
+        <v>393922222</v>
       </c>
       <c r="AP72" s="11">
-        <v>377775701</v>
+        <v>399810000</v>
       </c>
       <c r="AQ72" s="11">
-        <v>393922222</v>
+        <v>393947368</v>
       </c>
       <c r="AR72" s="11">
-        <v>399810000</v>
-      </c>
-      <c r="AS72" s="11">
-        <v>393947368</v>
+        <v>447412698</v>
+      </c>
+      <c r="AS72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT72" s="11">
-        <v>447412698</v>
-      </c>
-      <c r="AU72" s="11" t="s">
-        <v>57</v>
+        <v>635366197</v>
+      </c>
+      <c r="AU72" s="11">
+        <v>844238806</v>
       </c>
       <c r="AV72" s="11">
-        <v>635366197</v>
+        <v>867049383</v>
       </c>
       <c r="AW72" s="11">
-        <v>844238806</v>
+        <v>868516393</v>
       </c>
       <c r="AX72" s="11">
-        <v>867049383</v>
+        <v>752747967</v>
       </c>
       <c r="AY72" s="11">
-        <v>868516393</v>
+        <v>751137500</v>
       </c>
       <c r="AZ72" s="11">
-        <v>752747967</v>
+        <v>753682540</v>
       </c>
       <c r="BA72" s="11">
-        <v>751137500</v>
+        <v>553540230</v>
       </c>
       <c r="BB72" s="11">
-        <v>753682540</v>
+        <v>432144444</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>62</v>
       </c>
@@ -9133,113 +9133,113 @@
       <c r="S73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>57</v>
+      <c r="T73" s="13">
+        <v>114896970</v>
+      </c>
+      <c r="U73" s="13">
+        <v>155889988</v>
       </c>
       <c r="V73" s="13">
-        <v>114896970</v>
+        <v>162283283</v>
       </c>
       <c r="W73" s="13">
-        <v>155889988</v>
+        <v>164564236</v>
       </c>
       <c r="X73" s="13">
-        <v>162283283</v>
+        <v>153594828</v>
       </c>
       <c r="Y73" s="13">
-        <v>164564236</v>
+        <v>178291391</v>
       </c>
       <c r="Z73" s="13">
-        <v>153594828</v>
+        <v>161996681</v>
       </c>
       <c r="AA73" s="13">
-        <v>178291391</v>
+        <v>210158824</v>
       </c>
       <c r="AB73" s="13">
-        <v>161996681</v>
+        <v>236360131</v>
       </c>
       <c r="AC73" s="13">
-        <v>210158824</v>
+        <v>233310536</v>
       </c>
       <c r="AD73" s="13">
-        <v>236360131</v>
+        <v>237164884</v>
       </c>
       <c r="AE73" s="13">
-        <v>233310536</v>
+        <v>150058047</v>
       </c>
       <c r="AF73" s="13">
-        <v>237164884</v>
+        <v>241990234</v>
       </c>
       <c r="AG73" s="13">
-        <v>150058047</v>
+        <v>245253605</v>
       </c>
       <c r="AH73" s="13">
-        <v>241990234</v>
+        <v>232627604</v>
       </c>
       <c r="AI73" s="13">
-        <v>245253605</v>
+        <v>205461187</v>
       </c>
       <c r="AJ73" s="13">
-        <v>232627604</v>
+        <v>203809524</v>
       </c>
       <c r="AK73" s="13">
-        <v>205461187</v>
+        <v>205400000</v>
       </c>
       <c r="AL73" s="13">
-        <v>203809524</v>
+        <v>207527473</v>
       </c>
       <c r="AM73" s="13">
-        <v>205400000</v>
+        <v>229506849</v>
       </c>
       <c r="AN73" s="13">
-        <v>207527473</v>
+        <v>220782313</v>
       </c>
       <c r="AO73" s="13">
-        <v>229506849</v>
+        <v>227583333</v>
       </c>
       <c r="AP73" s="13">
-        <v>220782313</v>
+        <v>225400000</v>
       </c>
       <c r="AQ73" s="13">
-        <v>227583333</v>
+        <v>254004320</v>
       </c>
       <c r="AR73" s="13">
-        <v>232569377</v>
+        <v>367055556</v>
       </c>
       <c r="AS73" s="13">
-        <v>254004320</v>
+        <v>315718750</v>
       </c>
       <c r="AT73" s="13">
-        <v>367055556</v>
+        <v>515512658</v>
       </c>
       <c r="AU73" s="13">
-        <v>315718750</v>
+        <v>650880716</v>
       </c>
       <c r="AV73" s="13">
-        <v>515512658</v>
+        <v>721701422</v>
       </c>
       <c r="AW73" s="13">
-        <v>650880716</v>
+        <v>501906977</v>
       </c>
       <c r="AX73" s="13">
-        <v>721701422</v>
+        <v>563440860</v>
       </c>
       <c r="AY73" s="13">
-        <v>501906977</v>
+        <v>534381520</v>
       </c>
       <c r="AZ73" s="13">
-        <v>563440860</v>
+        <v>456138350</v>
       </c>
       <c r="BA73" s="13">
-        <v>534381520</v>
+        <v>477926415</v>
       </c>
       <c r="BB73" s="13">
-        <v>456138350</v>
+        <v>415892857</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -9296,7 +9296,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>55</v>
       </c>
@@ -9385,11 +9385,11 @@
       <c r="AE75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG75" s="11" t="s">
-        <v>57</v>
+      <c r="AF75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="11">
+        <v>0</v>
       </c>
       <c r="AH75" s="11">
         <v>0</v>
@@ -9403,11 +9403,11 @@
       <c r="AK75" s="11">
         <v>0</v>
       </c>
-      <c r="AL75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM75" s="11">
-        <v>0</v>
+      <c r="AL75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM75" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN75" s="11" t="s">
         <v>57</v>
@@ -9455,7 +9455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>62</v>
       </c>
@@ -9517,11 +9517,11 @@
       <c r="V76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>57</v>
+      <c r="W76" s="13">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13">
+        <v>0</v>
       </c>
       <c r="Y76" s="13">
         <v>0</v>
@@ -9544,11 +9544,11 @@
       <c r="AE76" s="13">
         <v>0</v>
       </c>
-      <c r="AF76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="13">
-        <v>0</v>
+      <c r="AF76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH76" s="13" t="s">
         <v>57</v>

--- a/database/industries/ghaza/ghegorji/product/monthly.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="79">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3260,116 +3260,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>16</v>
       </c>
       <c r="S11" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AT11" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="T11" s="13" t="n">
-        <v>32</v>
-      </c>
-      <c r="U11" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="V11" s="13" t="n">
+      <c r="AU11" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>139</v>
+      </c>
+      <c r="AY11" s="13" t="n">
+        <v>155</v>
+      </c>
+      <c r="AZ11" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA11" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AD11" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG11" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI11" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" s="13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO11" s="13" t="n">
-        <v>104</v>
-      </c>
-      <c r="AP11" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ11" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="AT11" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AU11" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV11" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW11" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AX11" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="AY11" s="13" t="n">
-        <v>139</v>
-      </c>
-      <c r="AZ11" s="13" t="n">
-        <v>155</v>
-      </c>
-      <c r="BA11" s="13" t="n">
-        <v>70</v>
-      </c>
       <c r="BB11" s="13" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,47 +3381,47 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>980</v>
+        <v>650</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>650</v>
+        <v>337</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>337</v>
+        <v>1344</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>1344</v>
+        <v>1118</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>1118</v>
+        <v>912</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>912</v>
+        <v>1407</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>1407</v>
+        <v>1598</v>
       </c>
       <c r="L12" s="15" t="n">
+        <v>1640</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>1432</v>
+      </c>
+      <c r="N12" s="15" t="n">
         <v>1598</v>
       </c>
-      <c r="M12" s="15" t="n">
-        <v>1640</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>1432</v>
-      </c>
       <c r="O12" s="15" t="n">
-        <v>1598</v>
+        <v>1339</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>1339</v>
+        <v>1506</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>1506</v>
-      </c>
-      <c r="R12" s="15" t="n">
         <v>1575</v>
       </c>
+      <c r="R12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S12" s="16" t="s">
         <v>57</v>
       </c>
@@ -3461,38 +3461,38 @@
       <c r="AE12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" s="16" t="s">
-        <v>57</v>
+      <c r="AF12" s="16" t="n">
+        <v>566</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>452</v>
+        <v>907</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>907</v>
+        <v>811</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>760</v>
+        <v>531</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>622</v>
-      </c>
-      <c r="AP12" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>57</v>
@@ -3540,10 +3540,10 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>374</v>
-      </c>
-      <c r="F13" s="13" t="n">
         <v>392</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>57</v>
@@ -3701,44 +3701,44 @@
       <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>57</v>
+      <c r="F14" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="R14" s="16" t="n">
         <v>78</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -3858,154 +3858,154 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K15" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="L15" s="13" t="n">
+        <v>228</v>
+      </c>
+      <c r="M15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>163</v>
+      </c>
+      <c r="T15" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="L15" s="13" t="n">
-        <v>97</v>
-      </c>
-      <c r="M15" s="13" t="n">
-        <v>228</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="O15" s="13" t="n">
+      <c r="U15" s="13" t="n">
+        <v>112</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>75</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>135</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>116</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>163</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>113</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="AZ15" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="BA15" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="BB15" s="13" t="n">
         <v>1</v>
-      </c>
-      <c r="P15" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="R15" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>163</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="V15" s="13" t="n">
-        <v>112</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="X15" s="13" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>135</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>213</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AC15" s="13" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD15" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG15" s="13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AH15" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AI15" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="AL15" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>83</v>
-      </c>
-      <c r="AO15" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="AP15" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ15" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AR15" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AS15" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AT15" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="AU15" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="AV15" s="13" t="n">
-        <v>163</v>
-      </c>
-      <c r="AW15" s="13" t="n">
-        <v>113</v>
-      </c>
-      <c r="AX15" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AZ15" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="BA15" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="BB15" s="13" t="n">
-        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,116 +4055,116 @@
       <c r="Q16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="16" t="s">
-        <v>57</v>
+      <c r="R16" s="16" t="n">
+        <v>691</v>
       </c>
       <c r="S16" s="16" t="n">
-        <v>691</v>
+        <v>1918</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>1918</v>
+        <v>750</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>750</v>
+        <v>1152</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>1059</v>
+        <v>1188</v>
       </c>
       <c r="X16" s="16" t="n">
+        <v>797</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" s="16" t="n">
+        <v>926</v>
+      </c>
+      <c r="AC16" s="16" t="n">
         <v>1188</v>
       </c>
-      <c r="Y16" s="16" t="n">
-        <v>797</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>1628</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC16" s="16" t="n">
-        <v>926</v>
-      </c>
       <c r="AD16" s="16" t="n">
-        <v>1188</v>
+        <v>710</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>710</v>
+        <v>1274</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>1274</v>
+        <v>384</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AI16" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK16" s="16" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM16" s="16" t="n">
         <v>84</v>
       </c>
-      <c r="AJ16" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK16" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL16" s="16" t="n">
+      <c r="AN16" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO16" s="16" t="n">
+        <v>421</v>
+      </c>
+      <c r="AP16" s="16" t="n">
+        <v>353</v>
+      </c>
+      <c r="AQ16" s="16" t="n">
+        <v>98</v>
+      </c>
+      <c r="AR16" s="16" t="n">
+        <v>222</v>
+      </c>
+      <c r="AS16" s="16" t="n">
+        <v>605</v>
+      </c>
+      <c r="AT16" s="16" t="n">
+        <v>630</v>
+      </c>
+      <c r="AU16" s="16" t="n">
+        <v>563</v>
+      </c>
+      <c r="AV16" s="16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AW16" s="16" t="n">
+        <v>680</v>
+      </c>
+      <c r="AX16" s="16" t="n">
+        <v>549</v>
+      </c>
+      <c r="AY16" s="16" t="n">
+        <v>398</v>
+      </c>
+      <c r="AZ16" s="16" t="n">
+        <v>426</v>
+      </c>
+      <c r="BA16" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="BB16" s="16" t="n">
         <v>146</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>147</v>
-      </c>
-      <c r="AN16" s="16" t="n">
-        <v>84</v>
-      </c>
-      <c r="AO16" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP16" s="16" t="n">
-        <v>421</v>
-      </c>
-      <c r="AQ16" s="16" t="n">
-        <v>353</v>
-      </c>
-      <c r="AR16" s="16" t="n">
-        <v>98</v>
-      </c>
-      <c r="AS16" s="16" t="n">
-        <v>222</v>
-      </c>
-      <c r="AT16" s="16" t="n">
-        <v>605</v>
-      </c>
-      <c r="AU16" s="16" t="n">
-        <v>630</v>
-      </c>
-      <c r="AV16" s="16" t="n">
-        <v>563</v>
-      </c>
-      <c r="AW16" s="16" t="n">
-        <v>450</v>
-      </c>
-      <c r="AX16" s="16" t="n">
-        <v>680</v>
-      </c>
-      <c r="AY16" s="16" t="n">
-        <v>549</v>
-      </c>
-      <c r="AZ16" s="16" t="n">
-        <v>398</v>
-      </c>
-      <c r="BA16" s="16" t="n">
-        <v>426</v>
-      </c>
-      <c r="BB16" s="16" t="n">
-        <v>345</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,11 +4307,11 @@
       <c r="AC18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE18" s="13" t="n">
-        <v>0</v>
+      <c r="AD18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF18" s="13" t="s">
         <v>57</v>
@@ -4439,8 +4439,8 @@
       <c r="T19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="16" t="s">
-        <v>57</v>
+      <c r="U19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="16" t="n">
         <v>0</v>
@@ -4466,8 +4466,8 @@
       <c r="AC19" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="16" t="n">
-        <v>0</v>
+      <c r="AD19" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE19" s="16" t="s">
         <v>57</v>
@@ -4596,8 +4596,8 @@
       <c r="T20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="18" t="s">
-        <v>57</v>
+      <c r="U20" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="18" t="n">
         <v>0</v>
@@ -4706,154 +4706,154 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="n">
-        <v>1471</v>
+        <v>1116</v>
       </c>
       <c r="F21" s="20" t="n">
-        <v>1116</v>
+        <v>361</v>
       </c>
       <c r="G21" s="20" t="n">
-        <v>361</v>
+        <v>1615</v>
       </c>
       <c r="H21" s="20" t="n">
-        <v>1615</v>
+        <v>1268</v>
       </c>
       <c r="I21" s="20" t="n">
-        <v>1268</v>
+        <v>1016</v>
       </c>
       <c r="J21" s="20" t="n">
-        <v>1016</v>
+        <v>1553</v>
       </c>
       <c r="K21" s="20" t="n">
-        <v>1553</v>
+        <v>1820</v>
       </c>
       <c r="L21" s="20" t="n">
-        <v>1820</v>
+        <v>2089</v>
       </c>
       <c r="M21" s="20" t="n">
-        <v>2089</v>
+        <v>1516</v>
       </c>
       <c r="N21" s="20" t="n">
-        <v>1516</v>
+        <v>1633</v>
       </c>
       <c r="O21" s="20" t="n">
-        <v>1633</v>
+        <v>1483</v>
       </c>
       <c r="P21" s="20" t="n">
-        <v>1483</v>
+        <v>1681</v>
       </c>
       <c r="Q21" s="20" t="n">
-        <v>1681</v>
+        <v>1729</v>
       </c>
       <c r="R21" s="20" t="n">
-        <v>1729</v>
+        <v>750</v>
       </c>
       <c r="S21" s="20" t="n">
-        <v>750</v>
+        <v>2113</v>
       </c>
       <c r="T21" s="20" t="n">
-        <v>2113</v>
+        <v>873</v>
       </c>
       <c r="U21" s="20" t="n">
-        <v>873</v>
+        <v>1289</v>
       </c>
       <c r="V21" s="20" t="n">
-        <v>1289</v>
+        <v>1192</v>
       </c>
       <c r="W21" s="20" t="n">
-        <v>1192</v>
+        <v>1313</v>
       </c>
       <c r="X21" s="20" t="n">
-        <v>1313</v>
+        <v>1015</v>
       </c>
       <c r="Y21" s="20" t="n">
-        <v>1015</v>
+        <v>1254</v>
       </c>
       <c r="Z21" s="20" t="n">
-        <v>1254</v>
+        <v>1867</v>
       </c>
       <c r="AA21" s="20" t="n">
-        <v>1867</v>
+        <v>1150</v>
       </c>
       <c r="AB21" s="20" t="n">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="AC21" s="20" t="n">
-        <v>1115</v>
+        <v>1246</v>
       </c>
       <c r="AD21" s="20" t="n">
-        <v>1246</v>
+        <v>710</v>
       </c>
       <c r="AE21" s="20" t="n">
-        <v>710</v>
+        <v>1274</v>
       </c>
       <c r="AF21" s="20" t="n">
-        <v>1274</v>
+        <v>1058</v>
       </c>
       <c r="AG21" s="20" t="n">
-        <v>1058</v>
+        <v>817</v>
       </c>
       <c r="AH21" s="20" t="n">
-        <v>817</v>
+        <v>1140</v>
       </c>
       <c r="AI21" s="20" t="n">
-        <v>1140</v>
+        <v>1031</v>
       </c>
       <c r="AJ21" s="20" t="n">
-        <v>1031</v>
+        <v>917</v>
       </c>
       <c r="AK21" s="20" t="n">
-        <v>917</v>
+        <v>1094</v>
       </c>
       <c r="AL21" s="20" t="n">
-        <v>1094</v>
+        <v>1126</v>
       </c>
       <c r="AM21" s="20" t="n">
-        <v>1126</v>
+        <v>763</v>
       </c>
       <c r="AN21" s="20" t="n">
+        <v>893</v>
+      </c>
+      <c r="AO21" s="20" t="n">
+        <v>497</v>
+      </c>
+      <c r="AP21" s="20" t="n">
+        <v>423</v>
+      </c>
+      <c r="AQ21" s="20" t="n">
+        <v>137</v>
+      </c>
+      <c r="AR21" s="20" t="n">
+        <v>369</v>
+      </c>
+      <c r="AS21" s="20" t="n">
+        <v>740</v>
+      </c>
+      <c r="AT21" s="20" t="n">
+        <v>744</v>
+      </c>
+      <c r="AU21" s="20" t="n">
         <v>763</v>
       </c>
-      <c r="AO21" s="20" t="n">
-        <v>893</v>
-      </c>
-      <c r="AP21" s="20" t="n">
-        <v>497</v>
-      </c>
-      <c r="AQ21" s="20" t="n">
-        <v>423</v>
-      </c>
-      <c r="AR21" s="20" t="n">
-        <v>137</v>
-      </c>
-      <c r="AS21" s="20" t="n">
-        <v>369</v>
-      </c>
-      <c r="AT21" s="20" t="n">
-        <v>740</v>
-      </c>
-      <c r="AU21" s="20" t="n">
-        <v>744</v>
-      </c>
       <c r="AV21" s="20" t="n">
-        <v>763</v>
+        <v>668</v>
       </c>
       <c r="AW21" s="20" t="n">
-        <v>668</v>
+        <v>860</v>
       </c>
       <c r="AX21" s="20" t="n">
-        <v>860</v>
+        <v>759</v>
       </c>
       <c r="AY21" s="20" t="n">
-        <v>759</v>
+        <v>621</v>
       </c>
       <c r="AZ21" s="20" t="n">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="BA21" s="20" t="n">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="BB21" s="20" t="n">
-        <v>477</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,116 +5337,116 @@
       <c r="Q28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>57</v>
+      <c r="R28" s="13" t="n">
+        <v>9</v>
       </c>
       <c r="S28" s="13" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AD28" s="13" t="n">
         <v>36</v>
       </c>
+      <c r="AD28" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>57</v>
+      <c r="AF28" s="13" t="n">
+        <v>71</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AI28" s="13" t="n">
         <v>28</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,47 +5458,47 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>846</v>
+        <v>972</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>972</v>
+        <v>293</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>293</v>
+        <v>1162</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>1162</v>
+        <v>952</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>952</v>
+        <v>1082</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>1082</v>
+        <v>1457</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>1457</v>
+        <v>1579</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1579</v>
+        <v>1508</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>1508</v>
+        <v>1279</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>1279</v>
+        <v>1708</v>
       </c>
       <c r="O29" s="16" t="n">
-        <v>1708</v>
+        <v>1474</v>
       </c>
       <c r="P29" s="16" t="n">
-        <v>1474</v>
+        <v>1451</v>
       </c>
       <c r="Q29" s="16" t="n">
-        <v>1451</v>
-      </c>
-      <c r="R29" s="16" t="n">
         <v>1733</v>
       </c>
+      <c r="R29" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S29" s="16" t="s">
         <v>57</v>
       </c>
@@ -5538,38 +5538,38 @@
       <c r="AE29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="16" t="s">
-        <v>57</v>
+      <c r="AF29" s="16" t="n">
+        <v>453</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>453</v>
+        <v>652</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>759</v>
+        <v>583</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>588</v>
-      </c>
-      <c r="AP29" s="16" t="n">
         <v>36</v>
+      </c>
+      <c r="AP29" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ29" s="16" t="s">
         <v>57</v>
@@ -5617,10 +5617,10 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>288</v>
-      </c>
-      <c r="F30" s="13" t="n">
         <v>457</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>57</v>
@@ -5778,44 +5778,44 @@
       <c r="E31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>57</v>
+      <c r="F31" s="16" t="n">
+        <v>21</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="H31" s="16" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="I31" s="16" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J31" s="16" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K31" s="16" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="R31" s="16" t="n">
         <v>90</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S31" s="16" t="s">
         <v>57</v>
@@ -5935,154 +5935,154 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="n">
+        <v>171</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H32" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="I32" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="J32" s="13" t="n">
         <v>92</v>
       </c>
-      <c r="F32" s="13" t="n">
-        <v>171</v>
-      </c>
-      <c r="G32" s="13" t="n">
+      <c r="K32" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="L32" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="M32" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="N32" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="O32" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="P32" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="R32" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="H32" s="13" t="n">
-        <v>74</v>
-      </c>
-      <c r="I32" s="13" t="n">
+      <c r="S32" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="T32" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="V32" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="W32" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y32" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z32" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB32" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF32" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AG32" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH32" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AI32" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AJ32" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="AK32" s="13" t="n">
+        <v>117</v>
+      </c>
+      <c r="AL32" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="AM32" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN32" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO32" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP32" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS32" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT32" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU32" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AV32" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="AW32" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AX32" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY32" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="J32" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="K32" s="13" t="n">
-        <v>92</v>
-      </c>
-      <c r="L32" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="M32" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="N32" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="O32" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="P32" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="13" t="n">
-        <v>85</v>
-      </c>
-      <c r="R32" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="S32" s="13" t="n">
-        <v>28</v>
-      </c>
-      <c r="T32" s="13" t="n">
-        <v>130</v>
-      </c>
-      <c r="U32" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="V32" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="W32" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="X32" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y32" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z32" s="13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA32" s="13" t="n">
-        <v>159</v>
-      </c>
-      <c r="AB32" s="13" t="n">
-        <v>108</v>
-      </c>
-      <c r="AC32" s="13" t="n">
-        <v>133</v>
-      </c>
-      <c r="AD32" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AE32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG32" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="AH32" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AI32" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AJ32" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="AK32" s="13" t="n">
-        <v>108</v>
-      </c>
-      <c r="AL32" s="13" t="n">
-        <v>117</v>
-      </c>
-      <c r="AM32" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="AN32" s="13" t="n">
+      <c r="AZ32" s="13" t="n">
         <v>90</v>
       </c>
-      <c r="AO32" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP32" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AQ32" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR32" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT32" s="13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU32" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV32" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AW32" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX32" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AY32" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AZ32" s="13" t="n">
-        <v>87</v>
-      </c>
       <c r="BA32" s="13" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,116 +6132,116 @@
       <c r="Q33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="16" t="s">
-        <v>57</v>
+      <c r="R33" s="16" t="n">
+        <v>495</v>
       </c>
       <c r="S33" s="16" t="n">
-        <v>495</v>
+        <v>1618</v>
       </c>
       <c r="T33" s="16" t="n">
-        <v>1618</v>
+        <v>999</v>
       </c>
       <c r="U33" s="16" t="n">
-        <v>999</v>
+        <v>1152</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>1160</v>
+        <v>1208</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>1208</v>
+        <v>904</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>904</v>
+        <v>850</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>850</v>
+        <v>1219</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>1233</v>
+        <v>1122</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>1122</v>
+        <v>1516</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>1516</v>
+        <v>512</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>512</v>
+        <v>1179</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>1179</v>
+        <v>384</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AH33" s="16" t="n">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AI33" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ33" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK33" s="16" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL33" s="16" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM33" s="16" t="n">
         <v>84</v>
       </c>
-      <c r="AJ33" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK33" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL33" s="16" t="n">
-        <v>146</v>
-      </c>
-      <c r="AM33" s="16" t="n">
-        <v>147</v>
-      </c>
       <c r="AN33" s="16" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AO33" s="16" t="n">
-        <v>60</v>
+        <v>463</v>
       </c>
       <c r="AP33" s="16" t="n">
-        <v>463</v>
+        <v>360</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>360</v>
+        <v>32</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>316</v>
+        <v>503</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>503</v>
+        <v>633</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>633</v>
+        <v>344</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>465</v>
+        <v>671</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>671</v>
+        <v>412</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>412</v>
+        <v>530</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>530</v>
+        <v>476</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>605</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,11 +6384,11 @@
       <c r="AC35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE35" s="13" t="n">
-        <v>0</v>
+      <c r="AD35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF35" s="13" t="s">
         <v>57</v>
@@ -6516,8 +6516,8 @@
       <c r="T36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>57</v>
+      <c r="U36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V36" s="16" t="n">
         <v>0</v>
@@ -6543,8 +6543,8 @@
       <c r="AC36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" s="16" t="n">
-        <v>0</v>
+      <c r="AD36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE36" s="16" t="s">
         <v>57</v>
@@ -6673,8 +6673,8 @@
       <c r="T37" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="18" t="s">
-        <v>57</v>
+      <c r="U37" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="18" t="n">
         <v>0</v>
@@ -6887,8 +6887,8 @@
       <c r="T39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="18" t="s">
-        <v>57</v>
+      <c r="U39" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="18" t="n">
         <v>0</v>
@@ -6997,154 +6997,154 @@
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F40" s="20" t="n">
+        <v>342</v>
+      </c>
+      <c r="G40" s="20" t="n">
+        <v>1352</v>
+      </c>
+      <c r="H40" s="20" t="n">
+        <v>1121</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <v>1226</v>
       </c>
-      <c r="F40" s="20" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G40" s="20" t="n">
-        <v>342</v>
-      </c>
-      <c r="H40" s="20" t="n">
-        <v>1352</v>
-      </c>
-      <c r="I40" s="20" t="n">
-        <v>1121</v>
-      </c>
       <c r="J40" s="20" t="n">
-        <v>1226</v>
+        <v>1590</v>
       </c>
       <c r="K40" s="20" t="n">
-        <v>1590</v>
+        <v>1755</v>
       </c>
       <c r="L40" s="20" t="n">
-        <v>1755</v>
+        <v>1732</v>
       </c>
       <c r="M40" s="20" t="n">
-        <v>1732</v>
+        <v>1510</v>
       </c>
       <c r="N40" s="20" t="n">
-        <v>1510</v>
+        <v>1852</v>
       </c>
       <c r="O40" s="20" t="n">
-        <v>1852</v>
+        <v>1613</v>
       </c>
       <c r="P40" s="20" t="n">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="Q40" s="20" t="n">
-        <v>1601</v>
+        <v>1930</v>
       </c>
       <c r="R40" s="20" t="n">
-        <v>1930</v>
+        <v>532</v>
       </c>
       <c r="S40" s="20" t="n">
-        <v>532</v>
+        <v>1801</v>
       </c>
       <c r="T40" s="20" t="n">
-        <v>1801</v>
+        <v>1146</v>
       </c>
       <c r="U40" s="20" t="n">
-        <v>1146</v>
+        <v>1311</v>
       </c>
       <c r="V40" s="20" t="n">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="W40" s="20" t="n">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="X40" s="20" t="n">
-        <v>1371</v>
+        <v>1136</v>
       </c>
       <c r="Y40" s="20" t="n">
-        <v>1136</v>
+        <v>1072</v>
       </c>
       <c r="Z40" s="20" t="n">
-        <v>1072</v>
+        <v>1410</v>
       </c>
       <c r="AA40" s="20" t="n">
-        <v>1410</v>
+        <v>1439</v>
       </c>
       <c r="AB40" s="20" t="n">
-        <v>1439</v>
+        <v>1334</v>
       </c>
       <c r="AC40" s="20" t="n">
-        <v>1334</v>
+        <v>1631</v>
       </c>
       <c r="AD40" s="20" t="n">
-        <v>1631</v>
+        <v>512</v>
       </c>
       <c r="AE40" s="20" t="n">
-        <v>512</v>
+        <v>1179</v>
       </c>
       <c r="AF40" s="20" t="n">
-        <v>1179</v>
+        <v>1055</v>
       </c>
       <c r="AG40" s="20" t="n">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="AH40" s="20" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AI40" s="20" t="n">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AJ40" s="20" t="n">
-        <v>1011</v>
+        <v>1067</v>
       </c>
       <c r="AK40" s="20" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="AL40" s="20" t="n">
-        <v>1069</v>
+        <v>1106</v>
       </c>
       <c r="AM40" s="20" t="n">
-        <v>1106</v>
+        <v>828</v>
       </c>
       <c r="AN40" s="20" t="n">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="AO40" s="20" t="n">
-        <v>864</v>
+        <v>571</v>
       </c>
       <c r="AP40" s="20" t="n">
-        <v>571</v>
+        <v>436</v>
       </c>
       <c r="AQ40" s="20" t="n">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="AR40" s="20" t="n">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="AS40" s="20" t="n">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="AT40" s="20" t="n">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="AU40" s="20" t="n">
-        <v>744</v>
+        <v>523</v>
       </c>
       <c r="AV40" s="20" t="n">
-        <v>523</v>
+        <v>705</v>
       </c>
       <c r="AW40" s="20" t="n">
-        <v>705</v>
+        <v>888</v>
       </c>
       <c r="AX40" s="20" t="n">
-        <v>888</v>
+        <v>555</v>
       </c>
       <c r="AY40" s="20" t="n">
-        <v>555</v>
+        <v>782</v>
       </c>
       <c r="AZ40" s="20" t="n">
-        <v>782</v>
+        <v>670</v>
       </c>
       <c r="BA40" s="20" t="n">
-        <v>670</v>
+        <v>797</v>
       </c>
       <c r="BB40" s="20" t="n">
-        <v>797</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,116 +7628,116 @@
       <c r="Q47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="13" t="s">
-        <v>57</v>
+      <c r="R47" s="13" t="n">
+        <v>2720</v>
       </c>
       <c r="S47" s="13" t="n">
-        <v>2720</v>
+        <v>12971</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>12971</v>
+        <v>12129</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>12129</v>
+        <v>12962</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>12962</v>
+        <v>11838</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>11838</v>
+        <v>15040</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>15040</v>
+        <v>28208</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>28208</v>
+        <v>24364</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>24364</v>
+        <v>9319</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>9319</v>
+        <v>25128</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>25128</v>
+        <v>20524</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>20524</v>
-      </c>
-      <c r="AD47" s="13" t="n">
         <v>8653</v>
       </c>
+      <c r="AD47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="13" t="s">
-        <v>57</v>
+      <c r="AF47" s="13" t="n">
+        <v>21324</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>21324</v>
+        <v>9826</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>9826</v>
+        <v>8550</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>8550</v>
+        <v>8991</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>8991</v>
+        <v>12874</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>12874</v>
+        <v>17112</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>17112</v>
+        <v>36680</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>36680</v>
+        <v>29292</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>29292</v>
+        <v>49120</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>49120</v>
+        <v>14380</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>14380</v>
+        <v>9472</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>9472</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>0</v>
+        <v>72135</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>72135</v>
+        <v>54672</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>54672</v>
+        <v>23415</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>23415</v>
+        <v>51313</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>51313</v>
+        <v>95458</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>95458</v>
+        <v>111553</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>111553</v>
+        <v>65064</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>65064</v>
+        <v>98756</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>98756</v>
+        <v>44863</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>44863</v>
+        <v>40173</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>40173</v>
+        <v>997</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,47 +7749,47 @@
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="n">
-        <v>92732</v>
+        <v>84147</v>
       </c>
       <c r="F48" s="16" t="n">
-        <v>84147</v>
+        <v>30548</v>
       </c>
       <c r="G48" s="16" t="n">
-        <v>30548</v>
+        <v>141117</v>
       </c>
       <c r="H48" s="16" t="n">
-        <v>141117</v>
+        <v>119026</v>
       </c>
       <c r="I48" s="16" t="n">
-        <v>119026</v>
+        <v>136993</v>
       </c>
       <c r="J48" s="16" t="n">
-        <v>136993</v>
+        <v>194840</v>
       </c>
       <c r="K48" s="16" t="n">
-        <v>194840</v>
+        <v>231446</v>
       </c>
       <c r="L48" s="16" t="n">
-        <v>231446</v>
+        <v>214206</v>
       </c>
       <c r="M48" s="16" t="n">
-        <v>214206</v>
+        <v>188484</v>
       </c>
       <c r="N48" s="16" t="n">
-        <v>188484</v>
+        <v>235182</v>
       </c>
       <c r="O48" s="16" t="n">
-        <v>235182</v>
+        <v>215829</v>
       </c>
       <c r="P48" s="16" t="n">
-        <v>215829</v>
+        <v>193702</v>
       </c>
       <c r="Q48" s="16" t="n">
-        <v>193702</v>
-      </c>
-      <c r="R48" s="16" t="n">
         <v>210115</v>
       </c>
+      <c r="R48" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S48" s="16" t="s">
         <v>57</v>
       </c>
@@ -7829,38 +7829,38 @@
       <c r="AE48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF48" s="16" t="s">
-        <v>57</v>
+      <c r="AF48" s="16" t="n">
+        <v>120878</v>
       </c>
       <c r="AG48" s="16" t="n">
-        <v>120878</v>
+        <v>179709</v>
       </c>
       <c r="AH48" s="16" t="n">
-        <v>179709</v>
+        <v>225789</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>225789</v>
+        <v>231341</v>
       </c>
       <c r="AJ48" s="16" t="n">
-        <v>231341</v>
+        <v>256539</v>
       </c>
       <c r="AK48" s="16" t="n">
-        <v>256539</v>
+        <v>260537</v>
       </c>
       <c r="AL48" s="16" t="n">
-        <v>260537</v>
+        <v>260136</v>
       </c>
       <c r="AM48" s="16" t="n">
-        <v>260136</v>
+        <v>214732</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>214732</v>
+        <v>217920</v>
       </c>
       <c r="AO48" s="16" t="n">
-        <v>217920</v>
-      </c>
-      <c r="AP48" s="16" t="n">
         <v>13296</v>
+      </c>
+      <c r="AP48" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ48" s="16" t="s">
         <v>57</v>
@@ -7908,10 +7908,10 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="n">
-        <v>41826</v>
-      </c>
-      <c r="F49" s="13" t="n">
         <v>84711</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>57</v>
@@ -8069,44 +8069,44 @@
       <c r="E50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>57</v>
+      <c r="F50" s="16" t="n">
+        <v>4684</v>
       </c>
       <c r="G50" s="16" t="n">
-        <v>4684</v>
+        <v>19969</v>
       </c>
       <c r="H50" s="16" t="n">
-        <v>19969</v>
+        <v>15714</v>
       </c>
       <c r="I50" s="16" t="n">
-        <v>15714</v>
+        <v>11082</v>
       </c>
       <c r="J50" s="16" t="n">
-        <v>11082</v>
+        <v>10007</v>
       </c>
       <c r="K50" s="16" t="n">
-        <v>10007</v>
+        <v>8178</v>
       </c>
       <c r="L50" s="16" t="n">
-        <v>8178</v>
+        <v>22614</v>
       </c>
       <c r="M50" s="16" t="n">
-        <v>22614</v>
+        <v>23362</v>
       </c>
       <c r="N50" s="16" t="n">
-        <v>23362</v>
+        <v>14055</v>
       </c>
       <c r="O50" s="16" t="n">
-        <v>14055</v>
+        <v>10070</v>
       </c>
       <c r="P50" s="16" t="n">
-        <v>10070</v>
+        <v>13248</v>
       </c>
       <c r="Q50" s="16" t="n">
-        <v>13248</v>
-      </c>
-      <c r="R50" s="16" t="n">
         <v>26162</v>
+      </c>
+      <c r="R50" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S50" s="16" t="s">
         <v>57</v>
@@ -8226,154 +8226,154 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="n">
-        <v>12377</v>
+        <v>19377</v>
       </c>
       <c r="F51" s="13" t="n">
-        <v>19377</v>
+        <v>3847</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>3847</v>
+        <v>10812</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>10812</v>
+        <v>13186</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>13186</v>
+        <v>16921</v>
       </c>
       <c r="J51" s="13" t="n">
-        <v>16921</v>
+        <v>17204</v>
       </c>
       <c r="K51" s="13" t="n">
-        <v>17204</v>
+        <v>5671</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>5671</v>
+        <v>14270</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>14270</v>
+        <v>14960</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>14960</v>
+        <v>9438</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>9438</v>
+        <v>12066</v>
       </c>
       <c r="P51" s="13" t="n">
-        <v>12066</v>
+        <v>12873</v>
       </c>
       <c r="Q51" s="13" t="n">
-        <v>12873</v>
+        <v>13422</v>
       </c>
       <c r="R51" s="13" t="n">
-        <v>13422</v>
+        <v>4115</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>4115</v>
+        <v>22765</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>22765</v>
+        <v>19348</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>19348</v>
+        <v>21066</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>21066</v>
+        <v>14361</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>14361</v>
+        <v>17495</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>17495</v>
+        <v>18401</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>18401</v>
+        <v>30175</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>30175</v>
+        <v>41672</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>41672</v>
+        <v>25032</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>25032</v>
+        <v>31354</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>31354</v>
-      </c>
-      <c r="AD51" s="13" t="n">
         <v>16112</v>
       </c>
+      <c r="AD51" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF51" s="13" t="s">
-        <v>57</v>
+      <c r="AF51" s="13" t="n">
+        <v>43623</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>43623</v>
+        <v>37717</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>37717</v>
+        <v>32439</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>32439</v>
+        <v>39780</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>39780</v>
+        <v>34651</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>34651</v>
+        <v>44073</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>44073</v>
+        <v>40422</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>40422</v>
+        <v>35453</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>35453</v>
+        <v>39981</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>39981</v>
+        <v>14970</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>14970</v>
+        <v>28187</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>28187</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>0</v>
+        <v>45111</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>45111</v>
+        <v>56564</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>56564</v>
+        <v>70231</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>70231</v>
+        <v>105959</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>105959</v>
+        <v>92588</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>92588</v>
+        <v>60091</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>60091</v>
+        <v>47482</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>47482</v>
+        <v>48158</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>48158</v>
+        <v>38893</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>38893</v>
+        <v>38029</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>38029</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,116 +8423,116 @@
       <c r="Q52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R52" s="16" t="s">
-        <v>57</v>
+      <c r="R52" s="16" t="n">
+        <v>56874</v>
       </c>
       <c r="S52" s="16" t="n">
-        <v>56874</v>
+        <v>252230</v>
       </c>
       <c r="T52" s="16" t="n">
-        <v>252230</v>
+        <v>162121</v>
       </c>
       <c r="U52" s="16" t="n">
-        <v>162121</v>
+        <v>189578</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>189578</v>
+        <v>178170</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>178170</v>
+        <v>215376</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>215376</v>
+        <v>146445</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>146445</v>
+        <v>178635</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>178635</v>
+        <v>288123</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>288123</v>
+        <v>287747</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>287747</v>
+        <v>266099</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>266099</v>
+        <v>227488</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>227488</v>
+        <v>123899</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>123899</v>
+        <v>289154</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>289154</v>
+        <v>89329</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>89329</v>
+        <v>44996</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>44996</v>
+        <v>17120</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>17120</v>
+        <v>13351</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>13351</v>
+        <v>18885</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>18885</v>
+        <v>33508</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>33508</v>
+        <v>32455</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>32455</v>
+        <v>19117</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>19117</v>
+        <v>13524</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>13524</v>
+        <v>117604</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>117604</v>
+        <v>132140</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>132140</v>
+        <v>10103</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>10103</v>
+        <v>162902</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>162902</v>
+        <v>327393</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>327393</v>
+        <v>456837</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>456837</v>
+        <v>172656</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>172656</v>
+        <v>262000</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>262000</v>
+        <v>358570</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>358570</v>
+        <v>187929</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>187929</v>
+        <v>253301</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>253301</v>
+        <v>197965</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>197965</v>
+        <v>206357</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>206357</v>
+        <v>33974</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8675,8 +8675,8 @@
       <c r="AC54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD54" s="13" t="s">
-        <v>57</v>
+      <c r="AD54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE54" s="13" t="n">
         <v>0</v>
@@ -8693,8 +8693,8 @@
       <c r="AI54" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" s="13" t="n">
-        <v>0</v>
+      <c r="AJ54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK54" s="13" t="s">
         <v>57</v>
@@ -8807,8 +8807,8 @@
       <c r="T55" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="16" t="s">
-        <v>57</v>
+      <c r="U55" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="16" t="n">
         <v>0</v>
@@ -8834,8 +8834,8 @@
       <c r="AC55" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="16" t="n">
-        <v>0</v>
+      <c r="AD55" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE55" s="16" t="s">
         <v>57</v>
@@ -8966,8 +8966,8 @@
       <c r="T56" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="18" t="s">
-        <v>57</v>
+      <c r="U56" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="23" t="n">
         <v>0</v>
@@ -9182,8 +9182,8 @@
       <c r="T58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="18" t="s">
-        <v>57</v>
+      <c r="U58" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V58" s="23" t="n">
         <v>0</v>
@@ -9398,8 +9398,8 @@
       <c r="T60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>57</v>
+      <c r="U60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="13" t="n">
         <v>0</v>
@@ -9508,154 +9508,154 @@
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="n">
-        <v>146935</v>
+        <v>188235</v>
       </c>
       <c r="F61" s="20" t="n">
-        <v>188235</v>
+        <v>39079</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>39079</v>
+        <v>171898</v>
       </c>
       <c r="H61" s="20" t="n">
-        <v>171898</v>
+        <v>147926</v>
       </c>
       <c r="I61" s="20" t="n">
-        <v>147926</v>
+        <v>164996</v>
       </c>
       <c r="J61" s="20" t="n">
-        <v>164996</v>
+        <v>222051</v>
       </c>
       <c r="K61" s="20" t="n">
-        <v>222051</v>
+        <v>245295</v>
       </c>
       <c r="L61" s="20" t="n">
-        <v>245295</v>
+        <v>251090</v>
       </c>
       <c r="M61" s="20" t="n">
-        <v>251090</v>
+        <v>226806</v>
       </c>
       <c r="N61" s="20" t="n">
-        <v>226806</v>
+        <v>258675</v>
       </c>
       <c r="O61" s="20" t="n">
-        <v>258675</v>
+        <v>237965</v>
       </c>
       <c r="P61" s="20" t="n">
-        <v>237965</v>
+        <v>219823</v>
       </c>
       <c r="Q61" s="20" t="n">
-        <v>219823</v>
+        <v>249699</v>
       </c>
       <c r="R61" s="20" t="n">
-        <v>249699</v>
+        <v>63709</v>
       </c>
       <c r="S61" s="20" t="n">
-        <v>63709</v>
+        <v>287966</v>
       </c>
       <c r="T61" s="20" t="n">
-        <v>287966</v>
+        <v>193598</v>
       </c>
       <c r="U61" s="20" t="n">
-        <v>193598</v>
+        <v>223606</v>
       </c>
       <c r="V61" s="20" t="n">
-        <v>223606</v>
+        <v>204369</v>
       </c>
       <c r="W61" s="20" t="n">
-        <v>204369</v>
+        <v>247911</v>
       </c>
       <c r="X61" s="20" t="n">
-        <v>247911</v>
+        <v>193054</v>
       </c>
       <c r="Y61" s="20" t="n">
-        <v>193054</v>
+        <v>233174</v>
       </c>
       <c r="Z61" s="20" t="n">
-        <v>233174</v>
+        <v>339114</v>
       </c>
       <c r="AA61" s="20" t="n">
-        <v>339114</v>
+        <v>337907</v>
       </c>
       <c r="AB61" s="20" t="n">
-        <v>337907</v>
+        <v>317977</v>
       </c>
       <c r="AC61" s="20" t="n">
-        <v>317977</v>
+        <v>252253</v>
       </c>
       <c r="AD61" s="20" t="n">
-        <v>252253</v>
+        <v>123899</v>
       </c>
       <c r="AE61" s="20" t="n">
-        <v>123899</v>
+        <v>289154</v>
       </c>
       <c r="AF61" s="20" t="n">
-        <v>289154</v>
+        <v>275154</v>
       </c>
       <c r="AG61" s="20" t="n">
-        <v>275154</v>
+        <v>272248</v>
       </c>
       <c r="AH61" s="20" t="n">
-        <v>272248</v>
+        <v>283898</v>
       </c>
       <c r="AI61" s="20" t="n">
-        <v>283898</v>
+        <v>293463</v>
       </c>
       <c r="AJ61" s="20" t="n">
-        <v>293463</v>
+        <v>322949</v>
       </c>
       <c r="AK61" s="20" t="n">
-        <v>322949</v>
+        <v>355230</v>
       </c>
       <c r="AL61" s="20" t="n">
-        <v>355230</v>
+        <v>369693</v>
       </c>
       <c r="AM61" s="20" t="n">
-        <v>369693</v>
+        <v>298594</v>
       </c>
       <c r="AN61" s="20" t="n">
-        <v>298594</v>
+        <v>320545</v>
       </c>
       <c r="AO61" s="20" t="n">
-        <v>320545</v>
+        <v>160250</v>
       </c>
       <c r="AP61" s="20" t="n">
-        <v>160250</v>
+        <v>169799</v>
       </c>
       <c r="AQ61" s="20" t="n">
-        <v>169799</v>
+        <v>10103</v>
       </c>
       <c r="AR61" s="20" t="n">
-        <v>10103</v>
+        <v>280148</v>
       </c>
       <c r="AS61" s="20" t="n">
-        <v>280148</v>
+        <v>438629</v>
       </c>
       <c r="AT61" s="20" t="n">
-        <v>438629</v>
+        <v>550483</v>
       </c>
       <c r="AU61" s="20" t="n">
-        <v>550483</v>
+        <v>329928</v>
       </c>
       <c r="AV61" s="20" t="n">
-        <v>329928</v>
+        <v>450046</v>
       </c>
       <c r="AW61" s="20" t="n">
-        <v>450046</v>
+        <v>530214</v>
       </c>
       <c r="AX61" s="20" t="n">
-        <v>530214</v>
+        <v>300475</v>
       </c>
       <c r="AY61" s="20" t="n">
-        <v>300475</v>
+        <v>400215</v>
       </c>
       <c r="AZ61" s="20" t="n">
-        <v>400215</v>
+        <v>281721</v>
       </c>
       <c r="BA61" s="20" t="n">
-        <v>281721</v>
+        <v>284559</v>
       </c>
       <c r="BB61" s="20" t="n">
-        <v>284559</v>
+        <v>35967</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,116 +10139,116 @@
       <c r="Q68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R68" s="13" t="s">
-        <v>57</v>
+      <c r="R68" s="13" t="n">
+        <v>302222222</v>
       </c>
       <c r="S68" s="13" t="n">
-        <v>302222222</v>
+        <v>244735849</v>
       </c>
       <c r="T68" s="13" t="n">
-        <v>244735849</v>
+        <v>258063830</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>258063830</v>
+        <v>249269231</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>249269231</v>
+        <v>219222222</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>219222222</v>
+        <v>221176471</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>221176471</v>
+        <v>222110236</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>222110236</v>
+        <v>264826087</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>264826087</v>
+        <v>291218750</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>291218750</v>
+        <v>256411020</v>
       </c>
       <c r="AB68" s="13" t="n">
-        <v>256411020</v>
+        <v>259797468</v>
       </c>
       <c r="AC68" s="13" t="n">
-        <v>259797468</v>
-      </c>
-      <c r="AD68" s="13" t="n">
         <v>240361111</v>
       </c>
+      <c r="AD68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF68" s="13" t="s">
-        <v>57</v>
+      <c r="AF68" s="13" t="n">
+        <v>300338028</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>300338028</v>
+        <v>297757576</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>297757576</v>
+        <v>305357143</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>305357143</v>
+        <v>321107143</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>321107143</v>
+        <v>330102564</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>330102564</v>
+        <v>388909091</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>388909091</v>
+        <v>394408602</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>394408602</v>
+        <v>412563380</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>412563380</v>
+        <v>423448276</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>423448276</v>
+        <v>422941176</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>422941176</v>
-      </c>
-      <c r="AQ68" s="13" t="n">
         <v>728615385</v>
       </c>
-      <c r="AR68" s="13" t="s">
-        <v>57</v>
+      <c r="AQ68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR68" s="13" t="n">
+        <v>936818182</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>936818182</v>
+        <v>700923077</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>700923077</v>
+        <v>780500000</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>780500000</v>
+        <v>900228070</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>900228070</v>
+        <v>815880342</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>815880342</v>
+        <v>814255474</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>814255474</v>
+        <v>813300000</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>813300000</v>
+        <v>598521212</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>598521212</v>
+        <v>431375000</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>431375000</v>
+        <v>409928571</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>409928571</v>
+        <v>1060638298</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,47 +10260,47 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="n">
-        <v>109612293</v>
+        <v>86570988</v>
       </c>
       <c r="F69" s="16" t="n">
-        <v>86570988</v>
+        <v>104259386</v>
       </c>
       <c r="G69" s="16" t="n">
-        <v>104259386</v>
+        <v>121443201</v>
       </c>
       <c r="H69" s="16" t="n">
-        <v>121443201</v>
+        <v>125027311</v>
       </c>
       <c r="I69" s="16" t="n">
-        <v>125027311</v>
+        <v>126610906</v>
       </c>
       <c r="J69" s="16" t="n">
-        <v>126610906</v>
+        <v>133726836</v>
       </c>
       <c r="K69" s="16" t="n">
-        <v>133726836</v>
+        <v>146577581</v>
       </c>
       <c r="L69" s="16" t="n">
-        <v>146577581</v>
+        <v>142046419</v>
       </c>
       <c r="M69" s="16" t="n">
-        <v>142046419</v>
+        <v>147368256</v>
       </c>
       <c r="N69" s="16" t="n">
-        <v>147368256</v>
+        <v>137694379</v>
       </c>
       <c r="O69" s="16" t="n">
-        <v>137694379</v>
+        <v>146424016</v>
       </c>
       <c r="P69" s="16" t="n">
-        <v>146424016</v>
+        <v>133495520</v>
       </c>
       <c r="Q69" s="16" t="n">
-        <v>133495520</v>
-      </c>
-      <c r="R69" s="16" t="n">
         <v>121243508</v>
       </c>
+      <c r="R69" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S69" s="16" t="s">
         <v>57</v>
       </c>
@@ -10340,38 +10340,38 @@
       <c r="AE69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF69" s="16" t="s">
-        <v>57</v>
+      <c r="AF69" s="16" t="n">
+        <v>266838852</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>266838852</v>
+        <v>275627301</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>275627301</v>
+        <v>278751852</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>278751852</v>
+        <v>291728878</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>291728878</v>
+        <v>309455971</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>309455971</v>
+        <v>341912073</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>341912073</v>
+        <v>342735178</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>342735178</v>
+        <v>368322470</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>368322470</v>
+        <v>370612245</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>370612245</v>
-      </c>
-      <c r="AP69" s="16" t="n">
         <v>369333333</v>
+      </c>
+      <c r="AP69" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ69" s="16" t="s">
         <v>57</v>
@@ -10419,10 +10419,10 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="n">
-        <v>145229167</v>
-      </c>
-      <c r="F70" s="13" t="n">
         <v>185363239</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>57</v>
@@ -10580,44 +10580,44 @@
       <c r="E71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>57</v>
+      <c r="F71" s="16" t="n">
+        <v>223047619</v>
       </c>
       <c r="G71" s="16" t="n">
-        <v>223047619</v>
+        <v>172146552</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>172146552</v>
+        <v>191634146</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>191634146</v>
+        <v>230875000</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>230875000</v>
+        <v>244073171</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>244073171</v>
+        <v>89868132</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>89868132</v>
+        <v>175302326</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>175302326</v>
+        <v>175654135</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>175654135</v>
+        <v>173518519</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>173518519</v>
+        <v>173620690</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>173620690</v>
+        <v>203815385</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>203815385</v>
-      </c>
-      <c r="R71" s="16" t="n">
         <v>290688889</v>
+      </c>
+      <c r="R71" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S71" s="16" t="s">
         <v>57</v>
@@ -10737,154 +10737,154 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="n">
-        <v>134532609</v>
+        <v>113315789</v>
       </c>
       <c r="F72" s="13" t="n">
-        <v>113315789</v>
+        <v>137392857</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>137392857</v>
+        <v>146108108</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>146108108</v>
+        <v>151563218</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>151563218</v>
+        <v>176260417</v>
       </c>
       <c r="J72" s="13" t="n">
-        <v>176260417</v>
+        <v>187000000</v>
       </c>
       <c r="K72" s="13" t="n">
-        <v>187000000</v>
+        <v>66717647</v>
       </c>
       <c r="L72" s="13" t="n">
-        <v>66717647</v>
+        <v>150210526</v>
       </c>
       <c r="M72" s="13" t="n">
-        <v>150210526</v>
+        <v>152653061</v>
       </c>
       <c r="N72" s="13" t="n">
-        <v>152653061</v>
+        <v>149809524</v>
       </c>
       <c r="O72" s="13" t="n">
-        <v>149809524</v>
+        <v>148962963</v>
       </c>
       <c r="P72" s="13" t="n">
-        <v>148962963</v>
+        <v>151447059</v>
       </c>
       <c r="Q72" s="13" t="n">
-        <v>151447059</v>
+        <v>125439252</v>
       </c>
       <c r="R72" s="13" t="n">
-        <v>125439252</v>
+        <v>146964286</v>
       </c>
       <c r="S72" s="13" t="n">
-        <v>146964286</v>
+        <v>175115385</v>
       </c>
       <c r="T72" s="13" t="n">
-        <v>175115385</v>
+        <v>193480000</v>
       </c>
       <c r="U72" s="13" t="n">
-        <v>193480000</v>
+        <v>196878505</v>
       </c>
       <c r="V72" s="13" t="n">
-        <v>196878505</v>
+        <v>179512500</v>
       </c>
       <c r="W72" s="13" t="n">
-        <v>179512500</v>
+        <v>184157895</v>
       </c>
       <c r="X72" s="13" t="n">
-        <v>184157895</v>
+        <v>175247619</v>
       </c>
       <c r="Y72" s="13" t="n">
-        <v>175247619</v>
+        <v>232115385</v>
       </c>
       <c r="Z72" s="13" t="n">
-        <v>232115385</v>
+        <v>262088050</v>
       </c>
       <c r="AA72" s="13" t="n">
-        <v>262088050</v>
+        <v>231779352</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>231779352</v>
+        <v>235744361</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>235744361</v>
-      </c>
-      <c r="AD72" s="13" t="n">
         <v>203949367</v>
       </c>
+      <c r="AD72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF72" s="13" t="s">
-        <v>57</v>
+      <c r="AF72" s="13" t="n">
+        <v>296755102</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>296755102</v>
+        <v>294664063</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>294664063</v>
+        <v>292243243</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>292243243</v>
+        <v>318240000</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>318240000</v>
+        <v>320842593</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>320842593</v>
+        <v>376692308</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>376692308</v>
+        <v>377775701</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>377775701</v>
+        <v>393922222</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>393922222</v>
+        <v>399810000</v>
       </c>
       <c r="AO72" s="13" t="n">
-        <v>399810000</v>
+        <v>393947368</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>393947368</v>
-      </c>
-      <c r="AQ72" s="13" t="n">
         <v>447412698</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>57</v>
+      <c r="AQ72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR72" s="13" t="n">
+        <v>635366197</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>635366197</v>
+        <v>844238806</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>844238806</v>
+        <v>867049383</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>867049383</v>
+        <v>868516393</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>868516393</v>
+        <v>752747967</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>752747967</v>
+        <v>751137500</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>751137500</v>
+        <v>753682540</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>753682540</v>
+        <v>553540230</v>
       </c>
       <c r="AZ72" s="13" t="n">
-        <v>553540230</v>
+        <v>432144444</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>432144444</v>
+        <v>404563830</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>404563830</v>
+        <v>1070967742</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10934,116 +10934,116 @@
       <c r="Q73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R73" s="16" t="s">
-        <v>57</v>
+      <c r="R73" s="16" t="n">
+        <v>114896970</v>
       </c>
       <c r="S73" s="16" t="n">
-        <v>114896970</v>
+        <v>155889988</v>
       </c>
       <c r="T73" s="16" t="n">
-        <v>155889988</v>
+        <v>162283283</v>
       </c>
       <c r="U73" s="16" t="n">
-        <v>162283283</v>
+        <v>164564236</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>164564236</v>
+        <v>153594828</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>153594828</v>
+        <v>178291391</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>178291391</v>
+        <v>161996681</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>161996681</v>
+        <v>210158824</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>210158824</v>
+        <v>236360131</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>236360131</v>
+        <v>233310536</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>233310536</v>
+        <v>237164884</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>237164884</v>
+        <v>150058047</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>150058047</v>
+        <v>241990234</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>241990234</v>
+        <v>245253605</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>245253605</v>
+        <v>232627604</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>232627604</v>
+        <v>205461187</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>205461187</v>
+        <v>203809524</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>203809524</v>
+        <v>205400000</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>205400000</v>
+        <v>207527473</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>207527473</v>
+        <v>229506849</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>229506849</v>
+        <v>220782313</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>220782313</v>
+        <v>227583333</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>227583333</v>
+        <v>225400000</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>225400000</v>
+        <v>254004320</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>254004320</v>
+        <v>367055556</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>367055556</v>
+        <v>315718750</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>315718750</v>
+        <v>515512658</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>515512658</v>
+        <v>650880716</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>650880716</v>
+        <v>721701422</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>721701422</v>
+        <v>501906977</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>501906977</v>
+        <v>563440860</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>563440860</v>
+        <v>534381520</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>534381520</v>
+        <v>456138350</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>456138350</v>
+        <v>477926415</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>477926415</v>
+        <v>415892857</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>415892857</v>
+        <v>341085950</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>341085950</v>
+        <v>448442450</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11186,8 +11186,8 @@
       <c r="AC75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD75" s="13" t="s">
-        <v>57</v>
+      <c r="AD75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE75" s="13" t="n">
         <v>0</v>
@@ -11204,8 +11204,8 @@
       <c r="AI75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ75" s="13" t="n">
-        <v>0</v>
+      <c r="AJ75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK75" s="13" t="s">
         <v>57</v>
@@ -11318,8 +11318,8 @@
       <c r="T76" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U76" s="16" t="s">
-        <v>57</v>
+      <c r="U76" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V76" s="16" t="n">
         <v>0</v>
@@ -11345,8 +11345,8 @@
       <c r="AC76" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD76" s="16" t="n">
-        <v>0</v>
+      <c r="AD76" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE76" s="16" t="s">
         <v>57</v>
